--- a/results/sca/SCA_summary.xlsx
+++ b/results/sca/SCA_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie Beck/projects/selection/results/sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F89B0C-54FB-6E47-8EEA-08EDEAAC1E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F9677-CAE1-4445-B77B-7B8484DE0972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="460" windowWidth="16400" windowHeight="19040" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
+    <workbookView xWindow="18160" yWindow="460" windowWidth="15440" windowHeight="19040" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="188">
   <si>
     <t>Trait</t>
   </si>
@@ -331,6 +331,270 @@
   </si>
   <si>
     <t>SRhealth, age, exercise</t>
+  </si>
+  <si>
+    <t>race, parEdu, age, grsWages</t>
+  </si>
+  <si>
+    <t>Overall, IQ was not a robust predictor of a child moving out, either in the inference tests or in the specification curve. Despite this, there are a number of important patterns. First, controlling for parental eduation appears to attenuate the relationship, as does controlling for age. The only significant specifications control for race, which likely indicates that IQ's relationship to a child moving out varies as a function of race, such that controlling for race reduces non-shared variance between the two.</t>
+  </si>
+  <si>
+    <t>Overall, Social Support was not greatly predictive of a child moving out in either the permutation-based tests or the observed specification curve. However, as can be seen from the gaps in t eh bottom panels, controlling  for race and age were hugely consequential. When controlling for both age and race, there is a non-significant protective relationship between Social Support and a child moving out. When only controlling for age, there is a somewhat significant protective relationship, but when controlling for neither or race alone, there is no effect or a very small risk effect between the two.</t>
+  </si>
+  <si>
+    <t>race, age, numKids</t>
+  </si>
+  <si>
+    <t>race, age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-esteem was not robust across almost any specifications. Despite this, there seems to be strong changes in effect size across specifications. For example, when not controlling for race, there appears to be a small protective effect between Self-Esteem and a child moving out, while when controlling for race there appears to be a small risk effect. </t>
+  </si>
+  <si>
+    <t>Satisfaction with life was a robust predictor in two of the three permutation based tests and differerntially robust in the specification curve. It's differential robustness appears to be a factor of race, and the number of kids a participant had, with race attenuating the Satisfaction - child moves out relationship and number of kids slightly exaggerating it. Moreover, it appears that race and number of kids share variance such that controlling for both attenuates the relationship and pushes it toward non-significant.</t>
+  </si>
+  <si>
+    <t>race, numKids</t>
+  </si>
+  <si>
+    <t>race, age, numKids, grsWages</t>
+  </si>
+  <si>
+    <t>Positive Affect was a robust predictor of a child moving out in two of the three permutation tests and differentially robust in the observed specification curve. Race, age, number of children and gross wages appear to influence this relationship, with a jump in the effect size and a change of significance when race is controlled for, controlling for age attenuating the relationship,  and gross waves and number of children also showing patterns of attenuation. Thus, it appears that having more children, being a person of color, or  of different ages are likely pathways that affect both positive affect and a child moving out.</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor of a child moving out in two of the three permutation tests and differentially robust in the observed specification curve. Race, age, number of children and gross wages appear to influence this relationship, with a jump in the effect size and a change of significance when race is controlled for, controlling for age attenuating the relationship,  and gross waves and number of children also showing patterns of attenuation. Thus, it appears that having more children, being a person of color, or  of different ages are likely pathways that affect both Optimism and a child moving out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openness was not robustly associated with a child moving out, either in the permutation tests or in the observed curve. From the observed curve, controlling for race flips the direction of the effect from risk to protective. Beyond race, there does not appear to other consistent patterns in which covariates are consequential, which may suggest that race-related experiences may drive levels on Openness and the likelihood of a child moving out, with more Open parents not overally likely to have children move out sooner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Affect was robustly positively associated with a child moving out, both in two of the three permutation tests and in the observed curve. Race, marriage, gross wages appear to the be the most consequential covariates. Of most note is that controlling for both race and age almost completely attenuates the relationship, while controlling for either alone does not. </t>
+  </si>
+  <si>
+    <t>race, age, grsWages, married</t>
+  </si>
+  <si>
+    <t>Neuroticism was not a robust predictor of a child moving out either in  the specification curve or the permutation based inference tests. Examining the observed curve, it appears that gross wages, age, and race were the most consequential covariates, with controlling for gross wages and race, in particular, attenuating the relationship between Neuroticism and a child moving out.</t>
+  </si>
+  <si>
+    <t>race, age, grsWages</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust predictor of a child moving out, both in the permutation tests and in the observed specification curve. From the curve, age, education, and race appear to be the most consequential covariates. When controlling for race but not age or education, Locus of Control exhibited its strongest protective effect. When not controlling for race, the relationship was almost completely attenuating, suggesting that race explains almost all the shared variance between Locus of Control and a child in moving out. It may be that the lack of opportunities people of color often experience relative to white people gives them lower locus of control in ways that is associated with a child moving out.</t>
+  </si>
+  <si>
+    <t>race, age, education</t>
+  </si>
+  <si>
+    <t>Extraversion was not a robust predictor of a child moving out, either in the observed curve or in the permutation tests. The most consequential covariate in the observed curve appears to be age, with age attenuating a positive relationship between the two. This may suggest that age-related changes in Extraversion largely account for overlapping variance between Extraversion and a child moving out.</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression was a robust negative predictor of a child moving out, both in the permutation tests and in the observed curve. It appears that race and age were the most consequential covariates, with the strongest effect sizes observed when controlling for race and age and weaker effect sizes when controlling for race but not age or age but not race. </t>
+  </si>
+  <si>
+    <t>Conscientiousness was not a robust predictor of a child moving out, either in the permutation tests or in the observed curves. Indeed, looking at the curve, almost no specifications were significant. Age and race appear to the most consequential covariates, with controlling for both resulting in a near null effect, controlling for race suggesting a protective effect, and controlling for age suggesting a risk effect. Thus, it may be that race and age share critical variance with both each other and with Conscientiousness in ways that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>Agreeableness was not a robust predictor of a child moving out, either in the permutation tests or in the observed curve. Examing the curve, the most consequential covariate appears to be age, with the only demonstrated (non-significant) protective effects being when age is not controlled for. Moreover, there is a slight peak and significance change on the far right of the curve, but it is not clear what covariate(s) are driving this.</t>
+  </si>
+  <si>
+    <t>by examining the Neuroticism-mortality specification curve in Figure 11, it quickly becomes clear which covariates are consequential and influential. In the figure, there are two clear inflection points in the specification curve, both in terms of the magnitude (demonstrated by a jump in the size of the odds ratio) and significance of the effect (demonstrated by a change in the color the odds ratio in the figure). First looking at the portion of the curve to the far left before the first inflection  point, there is a clear, protective association between Neuroticism and mortality. The curve tells us several important features of these results: (1) they do not control for age; (2) they do control for self-rated health; (3) they are most protective when also not controlling for gender and alcohol use but (4) controlling for gender seems to reduce the magnitude of the association more than alcohol use. Next, looking at the middle portion of the figure, in which only a small minority of associations were significant, there do not immediately appear to be specific covariates whose absence or presence influences whether Neuroticism-mortality associations were significant. Instead, it appears that when controlling for most to all of the identified theoretically plausible covariates, the Neuroticism-mortality association is negligible and non-significant. Finally, looking at the far right of the curve, there are again a number of important features of the results that show that Neuroticism predicts higher odds of mortality: (1) they do control for age; (2) they do not control for self-rated health; (3) the association becomes stronger when controlling for gender; (4) they are strongest when not controlling for previous major health events and exercise. Thus, the summary from the full curve is that age and self-rated health appear to have the strongest consequences for the presence, magnitude, and direction of Neuroticism-mortality associations but that a number of other covariates, such as gender, alcohol use, major health events, and exercise.</t>
+  </si>
+  <si>
+    <t>Negative affect was robustly associatiated with mortality in both the observed specification curve and two of the three permutation tests. Examining the curve, it appears that self-rated health, age, and gender were the most consequential covariates, with controlling for age but not gender flipping the direction of the effect, and controlling for age but not self-rated health exaggerating the effect size and making the remaining  specifications significant. Although the protective effect was strongest when not controlling for age or gender, there is no cusp associated with the gender covariate.</t>
+  </si>
+  <si>
+    <t>IQ demonstrated a very robust protective effect on mortality, both in the permutation tests and in the observed specification curve. Despite this, there were a few covariates that appeared to play consequential roles in the size of the protective effect. The effect was strongest when not controlling for age or self-rated health and weakest when controlling for both, particularly when not accounting for education. The cusp reduction in effect size when age is controlled for and self-rated health is not suggests that the two share variance with one another but also unique variance with both IQ and mortality.</t>
+  </si>
+  <si>
+    <t>Social Support was reliably associated mortality. Despite this, patterns of covariates were consequential in the direction, magnitude, and signinficance of the effect. Social Support had a significant protective effect on mortality when age but not self-rated health was controlled for. When both were controlled for, the effect was near null and largely non-significant, particularly when also conntrolling for gender. Finally, the largest observed effect was a risk effect when self-rated health but not age was controlled for. This suggests that age and self-rated health have non-shared variance with mortality and social support that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>SRhealth, age, gender</t>
+  </si>
+  <si>
+    <t>Self-esteem was not robustly associated with mortality, either in the specification curve or permutation tests. Despite this, self-rated health and age were consequential to the direction and magnitude of the association, with controlling for age but not self-rated health demonstrating a protective effect, contolling for both demonstrating a null effect, adn controlling for self-rated health but not age demonstrating a risk effect. This suggests that age and self-rated health have non-shared variance with mortality and self-esteem that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>Satisfaction with life showed a robust protective effect on mortality, both in the observed curve as well as in the permutation tests. Despite this, age, self-rated health and alcohol use influence the magnitude, direction, and significance of the relationship. First, only those associations that controlled for age were significant. Second, the strongest effects were protective effects when both age and alcohol were controlled for. When age, alcohol use, and self-rated health are all controlled for, the affect is attenuated but remains significant. However, when age is not controlled the effect is either completely attenuated or even reversed. This suggests that age and self-rated health have non-shared variance with mortality and satisfaction that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>Positive Affect was a robust predictor of mortality in two of the three permutation tests and a differential predictor or mortality in the observed curve. This pattern appears to largely be due to self-rated health and age. The effect is significantly protective when controlling for age but not self-rated health, non-significantly protective when controlling for neither, almost completely attenuated when controlling for both, and non-significantly flips to a risk effect when controlling for self-rated health but not age. This suggests that age and self-rated health have non-shared variance with mortality and satisfaction that largely explains the effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism was a robust predictor of mortality in the permutation tests but less so in the observed curve. Despite this, it is clear that age is the most consequential covariate, with controlling for age reducing the size of the protective effect of Optimism on mortality. Controlling for age appears to be  important for the size of the effect as well, with those specifications that don't control for age being weaker. </t>
+  </si>
+  <si>
+    <t>age, SRhealth, alcohol</t>
+  </si>
+  <si>
+    <t>age, SRhealth</t>
+  </si>
+  <si>
+    <t>Opennes was robustly associated with mortality in two of the three permutation tests but less so in the observed specification curve. Indeed, looking at the curve,  the bulk of the signifcant Openness-mortality effects appear to be when neither age nor self-rated health are controlled for.</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust predcitor of mortality in the permutation tests but less so in the observed curve. Age, self-rated health, and alcohol use appear to be the most consequential covariates,  with the strongest effects when neither self-rated health or age are controlled for, a slight reduction when age but not health are controlled for, a cusped reduction when self-rated health but not age is controlled for, and an almost complete reduction when both are controlled for, which is exaggerated when alcohol use is also controlled for.</t>
+  </si>
+  <si>
+    <t>Extraversion had a robust protective effect on mortality in two of three permutation tests and in part of the observed curve. Looking at the curve, the protective effect was only significant when controlling for age and not controlling for self-rated health. Indeed, when controllinng for health, there is an attenuating cusp in the effect size that is attenuated even more when also controlling for age.</t>
+  </si>
+  <si>
+    <t>Depression was a robust risk factor of mortality both in the permutation tests and the observed curve.  The effect is strongest when controlling for age but  not self-rated health, but remains even when bothh are accounted for. The effect only appears null when self-rated health is controlled for but age is not, which suggests that controlling for age may reduce unexplained variance in health status in ways that is also associated with both depression and mortality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreeableness was robustly associated with mortality in two of the three permtuation tests but less so in the observed curve. As is clear from the figure, self-rated health, egnder, and age were the most consequential covariates. The effect was strongest when controlling for age but not health or gender. Controlling for health and gender in addition to age appears to be associated with a cusp the curve in which the effect size is attenuated. There is a second cusp in the right side of the whose origins are less clear. Although the difference appears to arise when age is controlled for, the other consequential covariates associated with the jump are unclear. </t>
+  </si>
+  <si>
+    <t>Conscientiousness was robustly associated with mortality in the permutation tests but less so in the observed curve. Looking at the curve, it becomes clear that the effect is only significant when controlling for age. Moreover, controlling for self-rated health attenuates the relationship, with both a reduction in effect size and no observed significant effects unless also controlling for age.</t>
+  </si>
+  <si>
+    <t>age, SRhealth, gender</t>
+  </si>
+  <si>
+    <t>Self-Esteem had a robust protective effect on contact with the criminal justice system. Although the effect was strongest when not controlling for major health events, education, and age, these covariates did not have any great effect on  the magnitude of the association. In contrast, there are two small attenuating cusps, once when not controllin for gender, and one when not controlling for parental occupational prestige and the number of kids. suggesting that controlling for these variables captures variance with self-esteem and criminal justice system contact that is not shared between the two.</t>
+  </si>
+  <si>
+    <t>physhlthevnt, gender, parOccPrstg, numKids</t>
+  </si>
+  <si>
+    <t>Social Support had a robust protective effect on contact with the criminal justice system, both in the permutation tests and in the observed specification curves. Despite this, there are a number of covariates who appear consequential to the magnitude of the effect. Controlling for race, for example, exaggerates the relationship between social support and criminal justice system contact. Moreover, the weakest associations are those that also do not control for marriage and age. Together this suggests that social support does predict contact with the criminal justice system, but that levels of social support operate differently for different racial groups as well as for married and unmarried individuals.</t>
+  </si>
+  <si>
+    <t>race, age, married</t>
+  </si>
+  <si>
+    <t>In the observed specification curve, Satisfaction with Life was not a robust predictor of contact with the criminal justice system. The effect was strongest when smoking, married, and gross wages were not controlled for, but they did not demonstrate any cusps.</t>
+  </si>
+  <si>
+    <t>smokes, married, grsWages</t>
+  </si>
+  <si>
+    <t>Positive Affect had a robust protective effect on contact with the criminal justice system in the permutation tests and a differential protective effect in the observed specification curve. From the observed curve, it is clear that the effect is weakest when not controlling for smoking or age. Moreover, there is an attenuating cusp when not controlling for parental occupational  prestige and the number of kids an individual has, which suggests important intergenerational effects in the relationship between Positive Affect and contact with the criminal justice system.</t>
+  </si>
+  <si>
+    <t>parOccPrstg, numKids, smokes, age</t>
+  </si>
+  <si>
+    <t>Optimism was not a robust predictor in the permutation tests and a differentially robust predictor of contact with the criminal justice system in the  observed specification curve. Moreover, there are no key variables driving this association, with the exception of the effect being most protective when not controlling for age and significant only when controlling for race. I suspect that in this case the race effect dirivng significance but not effect size is due to studies, like MIDUS, that don't have a representative race breakdown.</t>
+  </si>
+  <si>
+    <t>Openness was a robust risk factor for contact with the criminal justice system in the permutation tests but less so in the observed curve (in terms of significance). Moreover, with the small exceptions of race, and education having a exaggerating effect and marriage, age, and gender having an attenuating effec,t there were no clear consequential covariates.</t>
+  </si>
+  <si>
+    <t>Neuroticism was a robust risk factor of contact with the criminal justice system, both in the permutation tests and in the observed specification curve. Although there were no clear patterns of significance, the effect was weaker when not controlling for gender and stronger when not controlling for race and age, suggesting that gender differences may have different pathways in the relationship between Neuroticism and criminal activity but that many of these pathways may also be due to processes shared with race and age related experiences.</t>
+  </si>
+  <si>
+    <t>marriage, age, gender</t>
+  </si>
+  <si>
+    <t>Negative Affect was a robust risk factor for contact with the criminal justice system. The effect was largely significant, but only when controlling for gender, parental occupational prestige, and the number of kids. Despite this, none  of these demonstrated a cusp in the effect size, indicating that they did not have a dramatic effect  on the Negative Affect - criminal justice contact relationship.</t>
+  </si>
+  <si>
+    <t>parOccPrstg, numKids, gender</t>
+  </si>
+  <si>
+    <t>In terms of significance in the observed curve, Locus of Control was not a robust predictor of criminnal justice system contact. However, in the permutation tests, it did demonstrate a reliable protective effect of Locus of Control on criminal justice system contact. There were a few consequential covariates, with controlling for previous physical health events attenuating the effect and not controlling for either parental occupational prestige and the number of children also attenuating the effect.</t>
+  </si>
+  <si>
+    <t>physhlthevnt, numKids, gender, parOccPrstg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ was a robust predictor in the permutation tests and a differentially robust predictor in the observed curve of contact with the criminal justice system. The two most consequential covariates appear to be age and smoking, with controlling for both attenuating the effect, but only age appearing to have an effect on the significance of the effect. </t>
+  </si>
+  <si>
+    <t>age, smokes</t>
+  </si>
+  <si>
+    <t>Extraversion was not a robust predictor of contact with the criminal justice system in either the permutation tests of the observed specification curve. However, there were a number of consequential variables, in terms of direction, magnitude, and significance. First, the only significant specifications were those that controlled for gender and race. Indeed, there was a strong attenuating cusp wehn gender was controlled for suggesting that gender differences drive a seeming protective effect of Extraversion on contact with the criminal justice system. When not controlling for race, Extraversion appeared to be a risk factor for criminal activity. Together, this suggests that race and gender together largely attenuate the effect of Extraversion on criminal justice system contact. In other words, the two appear to share non-overlapping variance with Extraversion and criminal justice system contact.</t>
+  </si>
+  <si>
+    <t>Despression was not a robust predictor of criminal justice system contact in the observed curve, even though it was in the permutation tests. Moreover, although the effect size was weakest when not controlling for major health events, gender, and age, there was largely no pattern explaining how Depression predicts criminal justice system contact.</t>
+  </si>
+  <si>
+    <t>gender, race</t>
+  </si>
+  <si>
+    <t>physhlthevnt, gender, age</t>
+  </si>
+  <si>
+    <t>Conscientiousness demonstrated a robust protective effect on criminal justice system contact. Moreover, no covariates were particularly consequential, although the effect seemed stronger when controling for race and not controlling for gender.</t>
+  </si>
+  <si>
+    <t>Agreeableness was a robust protective factor against criminality. However, there were a number of consequential covariate patterns that impacted the effect. The effect was strongest when not controlling for gender and age but controlling for race, When controlling for race and age but not gender, the effect is very slightly attenuated. In other words, only when controlling for the relationship between race and criminal justice system activity is there a consequential relationship between Agreeableness and criminality but this is attenuated by gender.</t>
+  </si>
+  <si>
+    <t>race, age, gender</t>
+  </si>
+  <si>
+    <t>In the permutation tests, Social Support was a robust predictor of higher education, but in the observed curve  it was less robust. Examining the curve, age appears to be the biggest driver, with an exaggerating cusp in the curve and a smattering of significant estimates when age is not included in the model. Gender appears to play a smaller role with the largest effect sizes when age is controlled for being when gender is not controlled for.  This may suggest that age graded expriences, whether in the form of expectations or developmental procesess, may drive these relationships.</t>
+  </si>
+  <si>
+    <t>age, gender</t>
+  </si>
+  <si>
+    <t>Self-Esteem was not a robust predictor of higher education in either the specification curve or the permutation tests. However,  there are a few notable patterns in the curve. Throughout about 75% of the curve, there appears to be a protective effect of Self-Esteem and higher education. The effect is strongest when conntrolling for previous major health events and slightly attenuated by age. The effect size is slightly reduced when when not including either of those variables. However, there appears to be an interesting interplay between major health events and parental occupational prestige / number of children, such that when controlling for major health events but not  parental occupational prestige and number of children, self-esteem appears to predict higher odds of completing higher education. This likely suggests that individuals with more parental occupational prestige may impact self-esteem in ways that make its effect not uniformly positive. It also suggests that there may be self-esteem differences between those who do and don't have children in ways that have consequences for self-esteem's effect on completing college or above.</t>
+  </si>
+  <si>
+    <t>age, physhlthevnt, parOccPrstg, numKids</t>
+  </si>
+  <si>
+    <t>Satisfaction with life reliably predicted higher odds of completing higher education, both in the permutation tests and in the observed curve. Looking at the curve, there are no clear patterns of what covariates are driving this relationship. However, the effect does seems strongest when not controlling for parental occupational prestige, age, or number of children, which may suggest that these variables may have an indirect effect on higher education through satisfaction.</t>
+  </si>
+  <si>
+    <t>age, parOccPrstg, numKids</t>
+  </si>
+  <si>
+    <t>Positive Affect was not a robust predictor of higher education in either the permutation tests or in the observed curve. Looking at the curve, there are a few small patterns, but the most notable and important pattern is that controllinng for parental occupational prestige almost completely  attennuates  the relationship. Moreover, controlling for both parental occupational prestige and age pushes the effect even more toward null.</t>
+  </si>
+  <si>
+    <t>age, parOccPrstg</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor of higher education in the permutation tests  but not the observed curve. There were few patterns in this effect, which was quite consistent but the effect was strongest when not controlling for age  and parental occupational prestige.</t>
+  </si>
+  <si>
+    <t>Openness was a robust positive predictor of higher education in the permutation tests but not in the observed specification curve (in terms of significance). The effect was stronger when not controlling for age, but there was no cusp, suggesting that age was not highly influential.</t>
+  </si>
+  <si>
+    <t>Neuroticism  was not a robust predictor higher education in either the observed curve or in the permutation tests. However, Neuroticism had a unique relationship to the covariates. When controlling for age, Neuroticism predicted lower odds of higher education, often significantly. However, when controlling for age, Neuroticism was a negative predictor higher education. The negative effect was strongest when controlling for both age and gender, but specificaitons that included gender but not age were still positive, suggesting that age is the most consequential covariate.</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust positive predictor of higher education in the permutation test but not the observed curve (in terms of significance). However, there are two cusps in the curve suggesting consequential covariates. First, the effect was weakest when controlling for previous health events and the number of children an individual has. There is a slight uptick when major health events are not controlled for but number kids is as well as a second uptick when major health events is again controlled for but parental occupational prestige and number kids are not. Together this suggets that parental occupational prestige, experiencing a health event, and having children may influence one's Locus of Control in ways that has consequences for completing higher education.</t>
+  </si>
+  <si>
+    <t>physhlthevnt, parOccPrstg, numKids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Affect was not a robust predictor of higher education in the observed specification curve or permutation tests. Looking at the curve, it's clear that covariates are consequential for the direction, magnitude, and significance of the association, with Negative Affect predicting lower odds of higher education when not controlling  for parental occupational prestige and number of children, and positive when not controlling for age. A number of speciifications ar the far right are significant, but there is no clear pattern of covariates in the lower part fo the curve that appears to capture when significance flips. </t>
+  </si>
+  <si>
+    <t>IQ was a robust predictor in the permutation tests but not in the observed specification curve (in terms of significance). Looking at the curve, the association is largely positive,  but there are two cusps -- one small and one large -- that suggest the presence of consequential covariates. First, there is a small cusp when age is not controlled for, suggesting that age largely attenuates the effect. Second, there is a larger cusp when parental occupational prestige and number of children are not controlled for, suggesting that controlling for these two variables, which appear to share variance with one another, also share variance IQ and higher education. It may be that each of these act as barriers to completing higher education, regardless of IQ, in ways that attenuate the relationship.</t>
+  </si>
+  <si>
+    <t>Extraversion was not a  robust predictor of higher education, either in the observed specification curve or the permutation tests. Indeed, the only instances  in which it appears to be a significant predictor appear to be when not accounting for age, which likely suggests that any association between Extraversion and Higher Ed is due to age-grade differences in Extraversion and  expectations about education.</t>
+  </si>
+  <si>
+    <t>Depression was a robust predictor of higher education in two of the three permutation tests but not in the observed specification curve. When examining  the curve, it appears the presence of non-null associations is largely driven by not controlling parental occupational prestige and the number of children an individual has. Moreover, the only significant associations are those that do not  control for major health events, age, or gross wages.</t>
+  </si>
+  <si>
+    <t>numKids, parOccPrstg, physhlthevnt age</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust negative predictor of higher education in two of the three permutation tests but not in the oberved curve. In the observed curve, there is a cusp when age is controlled for and parental occupational prestige and number of chidlren are not. The effect is strongest when neither marriage nor age are controlled for. Together, this suggests that age graded processes that influence both levels of Conscieniousness and completing higher education likely drive the relationship between the two.</t>
+  </si>
+  <si>
+    <t>age, married, numKids, parOccPrstgg</t>
+  </si>
+  <si>
+    <t>Agreeableness was not a robust predictor of higher education in the permutation tests or in the specification curve. Looking at the curve, the strongest and  only significant effect are when controlling for gender and parental occupational prestige but not age. when controlling for both age and gender, there is a clear attenuating cusp in the association. Moreover, when not controlling for parental occupational prestige and number of children, the effect becomes positive, particularly when controlling for age. Thus, it seems that any predictive effect of Agreeableness on higher education appears to be due to age, gender, SES, and life stage differences rather than Agreeableness.</t>
+  </si>
+  <si>
+    <t>age, gender, parOccPrstg, numKids</t>
   </si>
 </sst>
 </file>
@@ -729,9 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60B34E-DAB7-424D-92A2-CED34158DA87}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,7 +1248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -994,8 +1258,14 @@
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1005,8 +1275,14 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1016,8 +1292,14 @@
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1027,8 +1309,14 @@
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1038,8 +1326,14 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1049,8 +1343,14 @@
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1060,8 +1360,14 @@
       <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1377,14 @@
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1082,16 +1394,31 @@
       <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1101,8 +1428,14 @@
       <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1112,19 +1445,31 @@
       <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1134,24 +1479,48 @@
       <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1161,16 +1530,31 @@
       <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1180,8 +1564,14 @@
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1191,8 +1581,14 @@
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1202,16 +1598,31 @@
       <c r="C36" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1221,19 +1632,31 @@
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1243,8 +1666,14 @@
       <c r="C40" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1254,8 +1683,14 @@
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1265,16 +1700,31 @@
       <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -1288,7 +1738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1302,7 +1752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1316,7 +1766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -1330,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1358,7 +1808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1372,7 +1822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1414,7 +1864,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1428,7 +1878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +1892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1456,7 +1906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1470,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -1480,8 +1930,14 @@
       <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -1491,8 +1947,14 @@
       <c r="C59" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1502,8 +1964,14 @@
       <c r="C60" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -1513,16 +1981,31 @@
       <c r="C61" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -1532,8 +2015,14 @@
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1543,8 +2032,14 @@
       <c r="C64" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -1554,8 +2049,14 @@
       <c r="C65" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -1565,8 +2066,14 @@
       <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -1576,8 +2083,14 @@
       <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -1587,8 +2100,14 @@
       <c r="C68" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1598,8 +2117,14 @@
       <c r="C69" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -1609,8 +2134,14 @@
       <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -1620,8 +2151,14 @@
       <c r="C71" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1632,7 +2169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -1643,7 +2180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -1654,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -1665,7 +2202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1676,15 +2213,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1695,20 +2235,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,6 +2264,9 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
+      <c r="C81" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -1726,6 +2275,9 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
+      <c r="C82" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -2149,7 +2701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>33</v>
       </c>
@@ -2159,8 +2711,14 @@
       <c r="C114" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -2170,8 +2728,14 @@
       <c r="C115" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -2181,8 +2745,14 @@
       <c r="C116" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -2192,8 +2762,14 @@
       <c r="C117" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2203,8 +2779,11 @@
       <c r="C118" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -2214,8 +2793,14 @@
       <c r="C119" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -2225,8 +2810,14 @@
       <c r="C120" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -2236,8 +2827,11 @@
       <c r="C121" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -2247,8 +2841,14 @@
       <c r="C122" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -2258,8 +2858,14 @@
       <c r="C123" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -2269,8 +2875,14 @@
       <c r="C124" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -2280,8 +2892,14 @@
       <c r="C125" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2909,14 @@
       <c r="C126" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -2301,6 +2925,12 @@
       </c>
       <c r="C127" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2650,6 +3280,9 @@
       </c>
       <c r="B159" t="s">
         <v>16</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3076,5 +3709,6 @@
     <sortCondition ref="A2:A198"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/results/sca/SCA_summary.xlsx
+++ b/results/sca/SCA_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie Beck/projects/selection/results/sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F9677-CAE1-4445-B77B-7B8484DE0972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F946086-235D-4448-B904-6764586F15D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18160" yWindow="460" windowWidth="15440" windowHeight="19040" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="211">
   <si>
     <t>Trait</t>
   </si>
@@ -595,13 +595,82 @@
   </si>
   <si>
     <t>age, gender, parOccPrstg, numKids</t>
+  </si>
+  <si>
+    <t>Social support was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. Indeed, age appears to drive much of the association between Social Support and starting a first job, with almost no significant specifications including age. Moreover, tis effect appears particularly strong when also controlling for race, such that controlling for both results in almost complete attenuation of the results. This suggests that age related processes that effect social support and starting a first job as well as race related experiences that may provide opportunities or barriers for starting a first job drive this effect.</t>
+  </si>
+  <si>
+    <t>age, race, parDivorce</t>
+  </si>
+  <si>
+    <t>Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. Indeed, age appears to drive much of the association between Self-Esteem and starting a first job, with almost no significant specifications including age.  This suggests that age related processes that effect Self-Esteem drive this effect.</t>
+  </si>
+  <si>
+    <t>Satisfaction with life was not a robust predictor of starting a first job in either the permutation tests or the the observed specification curve. Looking at the curve suggests that race, parental occupational prestige, and parental divorce were the most influential factors, with race and parental divorce attenuating the relationship, especially when coupled with parental occuptional prestige. This likely suggests that experiences related to race, parental occupational prestige, and parental divorce influence both parental divorce and the likelihood of starting a first job.</t>
+  </si>
+  <si>
+    <t>race, parOccPrstg, parDivorce</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. From the curve, it appears that not controlling for race, parental divorce, and parental education greatly attenuates the positive effect of optimism in starting a first job in ways that age alone cannot. This suggests that race and SES related opportunities and barriers likely influence optimism in ways that masks the relationship.</t>
+  </si>
+  <si>
+    <t>race, parDivorce, parEdu, parOccPrstg,  age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Affect was not a robust predictor of starting a first job in either the permutation tests or in the observed curve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. </t>
+  </si>
+  <si>
+    <t>Positive Affect was not a robust predictor of starting a first job in either the permutation tests or in the observed curve. From the curve, it appears that not controlling for age suggests a negative relationship between Positive Affect and starting a first job, while controlling for age,  race, and parental occupational prestige together suggest a robust positive relationship between the two. It appears that positive affect's predictive effect on getting a first job depends on both age and SES. This could be because individuals with less educated parents, for example, are more likely to get customer facing jobs earlier, which often use selection criterion based on exuded positive affect.</t>
+  </si>
+  <si>
+    <t>parEdu, age, parOccPrstg</t>
+  </si>
+  <si>
+    <t>Openness was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. From the curve, however, it appears that failing to account for race increases the magnitude of the effect and makes it significant and that age attenuates the relationship. This likely suggests that age-related change in Openness may be what influences the likelihood of getting a first job, and differences in Openness based on race-related experiences and opportunities may mask the relationship.</t>
+  </si>
+  <si>
+    <t>race, age, parDivorce</t>
+  </si>
+  <si>
+    <t>Neuroticism was not a robust predictor of starting a first job in either the permutation tests or in the observed curve.  From the curve, it appears that Neuroticism predicts lower odds of starting a first job, but only when controlling for age. This likely indicates that Neuroticism's impact on starting a first job differ across different age groups.  Moreover, it's notable that failing to control for age in Neuroticism - first job associations suggests an effect in the opposite direction.</t>
+  </si>
+  <si>
+    <t>Negative Affect was not a robust predictor of starting a first job in either the permutation tests or in the observed curve.  From the curve, it appears that Neuroticism predicts lower odds of starting a first job, but only when controlling for age. This likely indicates that Neuroticism's impact on starting a first job differ across different age groups.  Moreover, it's notable that failing to control for age in negative affect - first job associations suggests an effect in the opposite direction. In either direction, the effect is also stronger when controlling for parental occupational prestige which may mean that negative affect predicts who starts a first job differently over SES groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. Although a number of the associations are significant, many of the effect sizes are barely larger than the lower bound of the 95% permuted interval. Moreover, beyond education and a major physical helath event, there do not appear to be obvious patterns in which covariates are consequential to the relationship. </t>
+  </si>
+  <si>
+    <t>Intelligence was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. Optimism was a robust predictor or starting a first job, both in the permutation tests and in the observed curve.  From the curve, it is clear there are no cusps. Indeed the only pattern is that, on average, not controlling for age results in a negligible attenuation of the effect.</t>
+  </si>
+  <si>
+    <t>Extraversion was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. From the curve, it is clear that there is no effect controlling for neither race nor parental divorce and that the effect is strongest when not accounting for age and parental education. This likely suggests that for individuals of different races or individuals whose parents have different marital statuses, Extraversion may  influence their levels on Extraversion and likelihood of getting a job.</t>
+  </si>
+  <si>
+    <t>race, parDivorce</t>
+  </si>
+  <si>
+    <t>Depressionn was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve.  From the curve, the only clear cusp occurs when controlling for parental occupational prestige (i.e. the effect is larger when not controlling for it). However, given that parental occupational prestige is later also in specifications that have a positive association, the pattern around this is ultimately unclear.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. Despite this, there do appear to be a few consequential covariates. First, the effect appears very strong and negative when not controlling for age, race, and parental divorce and weaker and negative when controlling for these. In the right side of the curve, Conscientiousness does show the predicted positive effect of Conscientiousness on starting a first job, but the pattern isn't immediately clear as it seems to be due age, but age was included in specifications to the left of that, and the pattern remains unclear.</t>
+  </si>
+  <si>
+    <t>Agreeableness was not a robust predictor of starting a first job in either the permutation tests or in the observed curve. From the curve, it does appear that age graded differences may mask an effect assuming It exists. However, examining the rest of the specifications does not paint a clear picture underscoring why there is a cusp on the far right side of the curve.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,6 +682,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -662,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,6 +747,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,9 +1073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC60B34E-DAB7-424D-92A2-CED34158DA87}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2119,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2056,7 +2136,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2073,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2170,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2124,7 +2204,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -2158,7 +2238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2168,8 +2248,14 @@
       <c r="C72" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2179,8 +2265,14 @@
       <c r="C73" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -2190,8 +2282,14 @@
       <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -2201,8 +2299,14 @@
       <c r="C75" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2212,8 +2316,17 @@
       <c r="C76" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2223,8 +2336,17 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -2234,8 +2356,17 @@
       <c r="C78" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2245,8 +2376,14 @@
       <c r="C79" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2256,8 +2393,14 @@
       <c r="C80" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -2267,8 +2410,14 @@
       <c r="C81" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -2278,8 +2427,14 @@
       <c r="C82" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2444,14 @@
       <c r="C83" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -2300,10 +2461,16 @@
       <c r="C84" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -2311,8 +2478,14 @@
       <c r="C85" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2323,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2334,7 +2507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2378,7 +2551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2411,7 +2584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -2422,7 +2595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>

--- a/results/sca/SCA_summary.xlsx
+++ b/results/sca/SCA_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie Beck/projects/selection/results/sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F946086-235D-4448-B904-6764586F15D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE95F6-5F6E-F545-9123-B5525500743F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="460" windowWidth="15440" windowHeight="19040" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
+    <workbookView xWindow="31180" yWindow="480" windowWidth="16840" windowHeight="18960" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="346">
   <si>
     <t>Trait</t>
   </si>
@@ -171,18 +171,6 @@
     <t>key2</t>
   </si>
   <si>
-    <t>Agreeableness was largely unpredictive of child birth as a whole, although a a number of specifications did show a reliable protective effect. However, the protective effect appears to have been largely drivedn by not controlling for both age and parental occupational prestige, with essentially no specifications including these variables demonstrating any significant personality-outcome associations.</t>
-  </si>
-  <si>
-    <t>Although two of the three inference tests found the Conscientiousness-Child Birth associations to be largely robust, the specification curve itself shows that a large proportion of specifications were not significant. Although it demonstrates that the effect is strongest when race, parental divorce, and age are not controlled for and weakest when marriage and smoking are not controlled for, there is largely no overall pattern unerlying the pattern of the curve.</t>
-  </si>
-  <si>
-    <t>Depression predicted lower odds of child birth reliably only in a subset of specifications. Despite this, there is almost no pattern to which specfications were significant, as can be seen from the mix of red and black across all rows of the lower panel of the figure. There are, however, a few patterns that did not exhibit an effect on significance but did on magnitude and direction, with not controlling for exercise and previous major health events attenuating the effect and not controlling for parental occupational prestige pushing the effect toward higher odds of having a child.</t>
-  </si>
-  <si>
-    <t>Extraversion reliably predicted higher odds of having a dhild across almost all specifications. The effect is stronger when controlling for race and parental divorce, suggesting that these demographic characteristics may be consequential in Extraversion development in ways that have implications for the odds of having a child.</t>
-  </si>
-  <si>
     <t>Overall, Openness was not a reliable predictor of having a child. The few cases where it was did not control for race, parental divorce, and parental education, suggesting that these sociodemographic characteristics largely explain the pathway through which Openness predicts lower odds of child birth.</t>
   </si>
   <si>
@@ -201,18 +189,9 @@
     <t>Social support was not reliably associated with having a child across any specifications. Despite this, there is a clear cusp (increase in effect size) when  not controlling for race and parental divorce, which may suggest that part of the Social Support-child birth association is due to overlapping variance with these variables, such that experiences related to these may influence Social Support in ways that influence child birth.</t>
   </si>
   <si>
-    <t>Only one of the three inference tests suggested that IQ was reliably associated with having a child, which suggests that the overall effect may not be very robust. There is no clear pattern to the specification curve of tehir relationhip. There are two slight spikes in the curve when not controlling for parental occupational prestige and exercise but these are largely inconsequential.</t>
-  </si>
-  <si>
     <t>Per two of the three inferential tests, Optimism was robustly associated with higher odds of having a child. However, when examining the specification curve, there do not appear to be clear patterns in which covariates are driving the direction and magnitude of the effects or their significance. Age and previous major health events appear to be somewhat influential, with the magnitude being higher when they are controlled for. However, the increase is not so great as to be very consequential.</t>
   </si>
   <si>
-    <t>Negative Affect was robustly associated with higher odds of having a child according to two of the three inferential tests. From the curve, it appears that controlling for race and gross income attenuate  any protective effect Negative Affect may have on child birth, which suggests that these sociodemographic characteristics share overlapping variance with both Negative Affect and child birth. In addition, not until age is removed as a covariate is Negative Affect associated with higher odds of having a child, which suggests that age is much more predictive fo child birth than Negative Affect.</t>
-  </si>
-  <si>
-    <t>Neuroticism was not robustly associated with child birth across any specifications. From the curve, there are no clear key covarites although controlling for sociodemographic characteristics like age, gender, and parental occupational prestige appear to attenuate the effect.</t>
-  </si>
-  <si>
     <t>Similar to propensity score matched analyses, social support had a robust protective effect on divorce, such that individuals who reported more social support were less likely to get divorced across studies. As is clear in the figure, with the exception of models that did not control for key demographic variables (age, gender, race) and health behaviors (smoking, alcohol use), social support’s protective effect on divorce was very reliable.</t>
   </si>
   <si>
@@ -225,12 +204,6 @@
     <t>From the permutation-based inference tests, Positive Affect was a robust predictor of divorce, with higher Positive Affect associated with lower odds of divorce. As is clear from the figure, although the specifications were not significant, they did reliably differ from expected distribution under the null and did not appear to be greatly affected by the inclusion of any covariates.</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimism was not robustly associated with divorce both in the observed curve and in the permutation-based inference test. However, as is clear in the figure, a few variables played a role in both the effect size and signifance of the associations. Including self-rated health and alcohol use, for example, attenuated Optimism-Divorce associations, with the presence of both coupled with a small cusp in the specification curve. Including alochol use, in particular also seemed to attenuate significance of the association, which likely indicates that alcohol use, optimism, and divorce share variance. </t>
-  </si>
-  <si>
-    <t>Openness was robustly associated with divorce according to two of the three inference tests. However, when looking at the sruve, there are a few patterns that appear to be related to the significance and (less so) to the magnitude of the effect size. Specifications including self-rated health appear to have a somewhat greater magnitude than those that don't, but this is likely not truly consequential. There is a slight increase in the steepness of the curve near the point where age is no longer controlled, suggesting that controlling for age somewhat attenuates the Openness-divorce association.</t>
-  </si>
-  <si>
     <t>Neuroticism was robustly associated with higher odds of divorce, both in looking at the curve (nearly all significant; all effect sizes greater than the upper bound of the permuted samples) and according to the inference test. The only notable feature of this curve is a slight attenuation of the Neuroticism-divorce association when controlling for age (the left half of the figure), as is demonstrated by the slight cusp.</t>
   </si>
   <si>
@@ -240,27 +213,15 @@
     <t>According to two of the three inferential based tests, Locus of Control was robustly associated with lower odds of divorce. Moreover, when examining the observed curve specification curve, there are no clear cusps suggesting that any covariates are dramatically changing the association. In general, controlling for alcohol use somewhat attenuated the association, suggesting shared variance, both in terms of effect size and somewhat in terms of significance of the association (the somewhat darker black portions in the middle of the plot) but not dramatically.</t>
   </si>
   <si>
-    <t>IQ was not very robustly associatoin with divorce, with only one of the three inferential tests suggesting the effect is robust. An examination of the specification curve suggests that there are at least two consequential variables that attenuate IQ's association with divorce. First, controlling for race attenuates the relationship, as is clear from the cusp that appears when race is controlled  for. Second, controlling for neither exercise or age but not either one alone creates a second cusp further attenuating the relationship. While the former suggests that IQ, divorce, and race have shared variance, the latter suggests that age and exercise have non-shared variance with IQ and divorce.</t>
-  </si>
-  <si>
     <t>From two of the three permutation-based inference tests, Extraversion was robustly associated with higher odds of divorce. As is clear in the figure, the magnitude of the observed Extraversion-divorce association was reliably greater than the upper bound of the permuted curves. There is some change in the association across specifications but no clear overall pattern of why this occurs. Although the association with strongest when not  controlling for age and smoking and weakest when not controlling for self-rated health, there is no cusp indicating they played an extremely consequential role.</t>
   </si>
   <si>
     <t>Both the inferential tests and the curve clearly indicate that Depression is quite robustly associated with higher odds of divorce. However, there are also  a few variables that appear to consequentially impact the magnitude of this relationship. The relationship is weakest (closest to an odds ratio of 1) when not controlling for parental divorce and race. There appears to be three small cusps when neither previous major health events or exercise are controlled for simultaneously both on the left of the curve and just right of center, suggesting that these two covariates likely share variance with one another that is not shared with Depression or Divorce.</t>
   </si>
   <si>
-    <t>Conscientiousness was a reliable predictor of higher odds of divorce, both in the inferential-based tests and in the observed specification curve. There appears to a slight shift in the curve in a few specifications when age is controlled for but self-rated health is not in which the magnitude of the association slightly increases. This likely indicates thate age and self-rated health share variance that they do not share with either Conscientiousness or divorce but do share with other covariates. Despite this, the overall association is robust.</t>
-  </si>
-  <si>
-    <t>Somewhat unexpectedly, Agreeableness was roubstly associated with higher odds of divorce, both in the curve and in two of the three inferential tests. Despite this, there are a few patterns worth noting. It appears that when alcohol use but not gross wages and gender are controlled for, this slightly boosts the relationship between Agreeableness and divorce. This may indicate a slight suppression effect when these indicators are included together in the model.</t>
-  </si>
-  <si>
     <t>key_var</t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Optimism-mental health event assocations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Optimism was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect.</t>
-  </si>
-  <si>
     <t>Although Agreeableness was robustly predictive of mental health events according to the permutation-based inference tests, the observed specification curve suggests that few Agreeableness-Mental Health Event associations were significant across specifications. Although there were no clear cusps in the specification curve to suggest consequential covariates, there are a few covariates that are generally appear to occur with larger or smaller effect sizes. First, models that do not control for health and age had the strongest associations, while models that did not control gender had the weakest associations.</t>
   </si>
   <si>
@@ -285,60 +246,33 @@
     <t>SRhealth, gender, age, alcohol</t>
   </si>
   <si>
-    <t>IQ was not very robustly associated with mental health events, either in the permutation based inference tests or in the observed specification curves. Despite this, there is a clear cusp in the specification curve when neither gross wages or education are controlled for, suggesting that these indicators may share variance with IQ and mental health events. In addition, the effect changes dirction and gets much more positive when age and exercise are not cotrolled for, suggesting that these pathways may act as protective factors against mental health events.</t>
-  </si>
-  <si>
     <t>education,  exercise, age</t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Locus of Control-mental health event assocations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Locus of Control was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect appears to be attenuated when not controllingn for parental occupational prestige, suggesting that it could be a pathway through which Locus of Control predicts mentall health events.</t>
-  </si>
-  <si>
     <t>parOccPrstg</t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Negative Affect-mental health event assocations were reliably more extreme than permuted values. However, from looking at the observed specification curve, Negative Affect was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect is somewhat smaller when race and parental occupational prestige are not controlled for.</t>
-  </si>
-  <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Neuroticism-mental health event assocations were reliably positive and more extreme than permuted values. However, from looking at the observed specification curve, Neuroticism was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect does appear to get stronger when not controlling for self-rated health.</t>
-  </si>
-  <si>
     <t>race, parOccPrstg</t>
   </si>
   <si>
     <t>SRhealth</t>
   </si>
   <si>
-    <t>Openness was a reliable risk factor for mental health events, as is clear both in the observed specfication curve and in the permutation-based inference tests across specifications. Moreover, there were no clear cusps in the curves indicating which covariates were consequential for the direction, magnintude, and presence of the effect. Despite this, there are patterns that seem to be associated with effect size at a smaller magnitude, with the effect being smallest when not controlling for self-rated health and largest when not controlling for age.</t>
-  </si>
-  <si>
     <t>SRhealth, age</t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Positive Affect-mental health event assocations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Positive Affect was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect.  Despite this, there are a few notable patterns that appear to surround patterns of including race, previous physical health events, physical functioning and self-rated health that likely suggests that these covariates share variance in a way that may create confounders.</t>
-  </si>
-  <si>
     <t>SRhealth, race, physhlthevnt, PhysFunc1</t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Satisfaction with Life-mental health event assocations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Satisfaction with Life was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect appears to be weakest when not controlling for race, suggesting that race may be one pathway through which Satisfaction  with Life predicts mental health events.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Although Social Support was a robust predictor of mental health events according to each of the three inference based tests, approximately half of the personality-outcome associations were significant across specifications. It appears that this the specifications in which race is not controlled for are more attenuated and non-significant, suggesting that this may be a pathway through which social support predicts mental health events. </t>
   </si>
   <si>
-    <t>In the permutation-based inference tests, observed effect sizes of the Self-Esteem-mental health event assocations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Self-Esteem was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect seems to be strongest which self-rated health, age, and exercise are not controlled for suggesting that these may be pathways through which Self-Esteem predicts mental health events.</t>
-  </si>
-  <si>
     <t>SRhealth, age, exercise</t>
   </si>
   <si>
     <t>race, parEdu, age, grsWages</t>
   </si>
   <si>
-    <t>Overall, IQ was not a robust predictor of a child moving out, either in the inference tests or in the specification curve. Despite this, there are a number of important patterns. First, controlling for parental eduation appears to attenuate the relationship, as does controlling for age. The only significant specifications control for race, which likely indicates that IQ's relationship to a child moving out varies as a function of race, such that controlling for race reduces non-shared variance between the two.</t>
-  </si>
-  <si>
     <t>Overall, Social Support was not greatly predictive of a child moving out in either the permutation-based tests or the observed specification curve. However, as can be seen from the gaps in t eh bottom panels, controlling  for race and age were hugely consequential. When controlling for both age and race, there is a non-significant protective relationship between Social Support and a child moving out. When only controlling for age, there is a somewhat significant protective relationship, but when controlling for neither or race alone, there is no effect or a very small risk effect between the two.</t>
   </si>
   <si>
@@ -351,9 +285,6 @@
     <t xml:space="preserve">Self-esteem was not robust across almost any specifications. Despite this, there seems to be strong changes in effect size across specifications. For example, when not controlling for race, there appears to be a small protective effect between Self-Esteem and a child moving out, while when controlling for race there appears to be a small risk effect. </t>
   </si>
   <si>
-    <t>Satisfaction with life was a robust predictor in two of the three permutation based tests and differerntially robust in the specification curve. It's differential robustness appears to be a factor of race, and the number of kids a participant had, with race attenuating the Satisfaction - child moves out relationship and number of kids slightly exaggerating it. Moreover, it appears that race and number of kids share variance such that controlling for both attenuates the relationship and pushes it toward non-significant.</t>
-  </si>
-  <si>
     <t>race, numKids</t>
   </si>
   <si>
@@ -366,9 +297,6 @@
     <t>Optimism was a robust predictor of a child moving out in two of the three permutation tests and differentially robust in the observed specification curve. Race, age, number of children and gross wages appear to influence this relationship, with a jump in the effect size and a change of significance when race is controlled for, controlling for age attenuating the relationship,  and gross waves and number of children also showing patterns of attenuation. Thus, it appears that having more children, being a person of color, or  of different ages are likely pathways that affect both Optimism and a child moving out.</t>
   </si>
   <si>
-    <t xml:space="preserve">Openness was not robustly associated with a child moving out, either in the permutation tests or in the observed curve. From the observed curve, controlling for race flips the direction of the effect from risk to protective. Beyond race, there does not appear to other consistent patterns in which covariates are consequential, which may suggest that race-related experiences may drive levels on Openness and the likelihood of a child moving out, with more Open parents not overally likely to have children move out sooner. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Negative Affect was robustly positively associated with a child moving out, both in two of the three permutation tests and in the observed curve. Race, marriage, gross wages appear to the be the most consequential covariates. Of most note is that controlling for both race and age almost completely attenuates the relationship, while controlling for either alone does not. </t>
   </si>
   <si>
@@ -399,27 +327,15 @@
     <t>Conscientiousness was not a robust predictor of a child moving out, either in the permutation tests or in the observed curves. Indeed, looking at the curve, almost no specifications were significant. Age and race appear to the most consequential covariates, with controlling for both resulting in a near null effect, controlling for race suggesting a protective effect, and controlling for age suggesting a risk effect. Thus, it may be that race and age share critical variance with both each other and with Conscientiousness in ways that largely explains the effect.</t>
   </si>
   <si>
-    <t>Agreeableness was not a robust predictor of a child moving out, either in the permutation tests or in the observed curve. Examing the curve, the most consequential covariate appears to be age, with the only demonstrated (non-significant) protective effects being when age is not controlled for. Moreover, there is a slight peak and significance change on the far right of the curve, but it is not clear what covariate(s) are driving this.</t>
-  </si>
-  <si>
     <t>by examining the Neuroticism-mortality specification curve in Figure 11, it quickly becomes clear which covariates are consequential and influential. In the figure, there are two clear inflection points in the specification curve, both in terms of the magnitude (demonstrated by a jump in the size of the odds ratio) and significance of the effect (demonstrated by a change in the color the odds ratio in the figure). First looking at the portion of the curve to the far left before the first inflection  point, there is a clear, protective association between Neuroticism and mortality. The curve tells us several important features of these results: (1) they do not control for age; (2) they do control for self-rated health; (3) they are most protective when also not controlling for gender and alcohol use but (4) controlling for gender seems to reduce the magnitude of the association more than alcohol use. Next, looking at the middle portion of the figure, in which only a small minority of associations were significant, there do not immediately appear to be specific covariates whose absence or presence influences whether Neuroticism-mortality associations were significant. Instead, it appears that when controlling for most to all of the identified theoretically plausible covariates, the Neuroticism-mortality association is negligible and non-significant. Finally, looking at the far right of the curve, there are again a number of important features of the results that show that Neuroticism predicts higher odds of mortality: (1) they do control for age; (2) they do not control for self-rated health; (3) the association becomes stronger when controlling for gender; (4) they are strongest when not controlling for previous major health events and exercise. Thus, the summary from the full curve is that age and self-rated health appear to have the strongest consequences for the presence, magnitude, and direction of Neuroticism-mortality associations but that a number of other covariates, such as gender, alcohol use, major health events, and exercise.</t>
   </si>
   <si>
-    <t>Negative affect was robustly associatiated with mortality in both the observed specification curve and two of the three permutation tests. Examining the curve, it appears that self-rated health, age, and gender were the most consequential covariates, with controlling for age but not gender flipping the direction of the effect, and controlling for age but not self-rated health exaggerating the effect size and making the remaining  specifications significant. Although the protective effect was strongest when not controlling for age or gender, there is no cusp associated with the gender covariate.</t>
-  </si>
-  <si>
     <t>IQ demonstrated a very robust protective effect on mortality, both in the permutation tests and in the observed specification curve. Despite this, there were a few covariates that appeared to play consequential roles in the size of the protective effect. The effect was strongest when not controlling for age or self-rated health and weakest when controlling for both, particularly when not accounting for education. The cusp reduction in effect size when age is controlled for and self-rated health is not suggests that the two share variance with one another but also unique variance with both IQ and mortality.</t>
   </si>
   <si>
-    <t>Social Support was reliably associated mortality. Despite this, patterns of covariates were consequential in the direction, magnitude, and signinficance of the effect. Social Support had a significant protective effect on mortality when age but not self-rated health was controlled for. When both were controlled for, the effect was near null and largely non-significant, particularly when also conntrolling for gender. Finally, the largest observed effect was a risk effect when self-rated health but not age was controlled for. This suggests that age and self-rated health have non-shared variance with mortality and social support that largely explains the effect.</t>
-  </si>
-  <si>
     <t>SRhealth, age, gender</t>
   </si>
   <si>
-    <t>Self-esteem was not robustly associated with mortality, either in the specification curve or permutation tests. Despite this, self-rated health and age were consequential to the direction and magnitude of the association, with controlling for age but not self-rated health demonstrating a protective effect, contolling for both demonstrating a null effect, adn controlling for self-rated health but not age demonstrating a risk effect. This suggests that age and self-rated health have non-shared variance with mortality and self-esteem that largely explains the effect.</t>
-  </si>
-  <si>
     <t>Satisfaction with life showed a robust protective effect on mortality, both in the observed curve as well as in the permutation tests. Despite this, age, self-rated health and alcohol use influence the magnitude, direction, and significance of the relationship. First, only those associations that controlled for age were significant. Second, the strongest effects were protective effects when both age and alcohol were controlled for. When age, alcohol use, and self-rated health are all controlled for, the affect is attenuated but remains significant. However, when age is not controlled the effect is either completely attenuated or even reversed. This suggests that age and self-rated health have non-shared variance with mortality and satisfaction that largely explains the effect.</t>
   </si>
   <si>
@@ -435,30 +351,12 @@
     <t>age, SRhealth</t>
   </si>
   <si>
-    <t>Opennes was robustly associated with mortality in two of the three permutation tests but less so in the observed specification curve. Indeed, looking at the curve,  the bulk of the signifcant Openness-mortality effects appear to be when neither age nor self-rated health are controlled for.</t>
-  </si>
-  <si>
-    <t>Locus of Control was a robust predcitor of mortality in the permutation tests but less so in the observed curve. Age, self-rated health, and alcohol use appear to be the most consequential covariates,  with the strongest effects when neither self-rated health or age are controlled for, a slight reduction when age but not health are controlled for, a cusped reduction when self-rated health but not age is controlled for, and an almost complete reduction when both are controlled for, which is exaggerated when alcohol use is also controlled for.</t>
-  </si>
-  <si>
-    <t>Extraversion had a robust protective effect on mortality in two of three permutation tests and in part of the observed curve. Looking at the curve, the protective effect was only significant when controlling for age and not controlling for self-rated health. Indeed, when controllinng for health, there is an attenuating cusp in the effect size that is attenuated even more when also controlling for age.</t>
-  </si>
-  <si>
-    <t>Depression was a robust risk factor of mortality both in the permutation tests and the observed curve.  The effect is strongest when controlling for age but  not self-rated health, but remains even when bothh are accounted for. The effect only appears null when self-rated health is controlled for but age is not, which suggests that controlling for age may reduce unexplained variance in health status in ways that is also associated with both depression and mortality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreeableness was robustly associated with mortality in two of the three permtuation tests but less so in the observed curve. As is clear from the figure, self-rated health, egnder, and age were the most consequential covariates. The effect was strongest when controlling for age but not health or gender. Controlling for health and gender in addition to age appears to be associated with a cusp the curve in which the effect size is attenuated. There is a second cusp in the right side of the whose origins are less clear. Although the difference appears to arise when age is controlled for, the other consequential covariates associated with the jump are unclear. </t>
-  </si>
-  <si>
     <t>Conscientiousness was robustly associated with mortality in the permutation tests but less so in the observed curve. Looking at the curve, it becomes clear that the effect is only significant when controlling for age. Moreover, controlling for self-rated health attenuates the relationship, with both a reduction in effect size and no observed significant effects unless also controlling for age.</t>
   </si>
   <si>
     <t>age, SRhealth, gender</t>
   </si>
   <si>
-    <t>Self-Esteem had a robust protective effect on contact with the criminal justice system. Although the effect was strongest when not controlling for major health events, education, and age, these covariates did not have any great effect on  the magnitude of the association. In contrast, there are two small attenuating cusps, once when not controllin for gender, and one when not controlling for parental occupational prestige and the number of kids. suggesting that controlling for these variables captures variance with self-esteem and criminal justice system contact that is not shared between the two.</t>
-  </si>
-  <si>
     <t>physhlthevnt, gender, parOccPrstg, numKids</t>
   </si>
   <si>
@@ -480,12 +378,6 @@
     <t>parOccPrstg, numKids, smokes, age</t>
   </si>
   <si>
-    <t>Optimism was not a robust predictor in the permutation tests and a differentially robust predictor of contact with the criminal justice system in the  observed specification curve. Moreover, there are no key variables driving this association, with the exception of the effect being most protective when not controlling for age and significant only when controlling for race. I suspect that in this case the race effect dirivng significance but not effect size is due to studies, like MIDUS, that don't have a representative race breakdown.</t>
-  </si>
-  <si>
-    <t>Openness was a robust risk factor for contact with the criminal justice system in the permutation tests but less so in the observed curve (in terms of significance). Moreover, with the small exceptions of race, and education having a exaggerating effect and marriage, age, and gender having an attenuating effec,t there were no clear consequential covariates.</t>
-  </si>
-  <si>
     <t>Neuroticism was a robust risk factor of contact with the criminal justice system, both in the permutation tests and in the observed specification curve. Although there were no clear patterns of significance, the effect was weaker when not controlling for gender and stronger when not controlling for race and age, suggesting that gender differences may have different pathways in the relationship between Neuroticism and criminal activity but that many of these pathways may also be due to processes shared with race and age related experiences.</t>
   </si>
   <si>
@@ -498,9 +390,6 @@
     <t>parOccPrstg, numKids, gender</t>
   </si>
   <si>
-    <t>In terms of significance in the observed curve, Locus of Control was not a robust predictor of criminnal justice system contact. However, in the permutation tests, it did demonstrate a reliable protective effect of Locus of Control on criminal justice system contact. There were a few consequential covariates, with controlling for previous physical health events attenuating the effect and not controlling for either parental occupational prestige and the number of children also attenuating the effect.</t>
-  </si>
-  <si>
     <t>physhlthevnt, numKids, gender, parOccPrstg</t>
   </si>
   <si>
@@ -510,36 +399,21 @@
     <t>age, smokes</t>
   </si>
   <si>
-    <t>Extraversion was not a robust predictor of contact with the criminal justice system in either the permutation tests of the observed specification curve. However, there were a number of consequential variables, in terms of direction, magnitude, and significance. First, the only significant specifications were those that controlled for gender and race. Indeed, there was a strong attenuating cusp wehn gender was controlled for suggesting that gender differences drive a seeming protective effect of Extraversion on contact with the criminal justice system. When not controlling for race, Extraversion appeared to be a risk factor for criminal activity. Together, this suggests that race and gender together largely attenuate the effect of Extraversion on criminal justice system contact. In other words, the two appear to share non-overlapping variance with Extraversion and criminal justice system contact.</t>
-  </si>
-  <si>
-    <t>Despression was not a robust predictor of criminal justice system contact in the observed curve, even though it was in the permutation tests. Moreover, although the effect size was weakest when not controlling for major health events, gender, and age, there was largely no pattern explaining how Depression predicts criminal justice system contact.</t>
-  </si>
-  <si>
     <t>gender, race</t>
   </si>
   <si>
     <t>physhlthevnt, gender, age</t>
   </si>
   <si>
-    <t>Conscientiousness demonstrated a robust protective effect on criminal justice system contact. Moreover, no covariates were particularly consequential, although the effect seemed stronger when controling for race and not controlling for gender.</t>
-  </si>
-  <si>
     <t>Agreeableness was a robust protective factor against criminality. However, there were a number of consequential covariate patterns that impacted the effect. The effect was strongest when not controlling for gender and age but controlling for race, When controlling for race and age but not gender, the effect is very slightly attenuated. In other words, only when controlling for the relationship between race and criminal justice system activity is there a consequential relationship between Agreeableness and criminality but this is attenuated by gender.</t>
   </si>
   <si>
     <t>race, age, gender</t>
   </si>
   <si>
-    <t>In the permutation tests, Social Support was a robust predictor of higher education, but in the observed curve  it was less robust. Examining the curve, age appears to be the biggest driver, with an exaggerating cusp in the curve and a smattering of significant estimates when age is not included in the model. Gender appears to play a smaller role with the largest effect sizes when age is controlled for being when gender is not controlled for.  This may suggest that age graded expriences, whether in the form of expectations or developmental procesess, may drive these relationships.</t>
-  </si>
-  <si>
     <t>age, gender</t>
   </si>
   <si>
-    <t>Self-Esteem was not a robust predictor of higher education in either the specification curve or the permutation tests. However,  there are a few notable patterns in the curve. Throughout about 75% of the curve, there appears to be a protective effect of Self-Esteem and higher education. The effect is strongest when conntrolling for previous major health events and slightly attenuated by age. The effect size is slightly reduced when when not including either of those variables. However, there appears to be an interesting interplay between major health events and parental occupational prestige / number of children, such that when controlling for major health events but not  parental occupational prestige and number of children, self-esteem appears to predict higher odds of completing higher education. This likely suggests that individuals with more parental occupational prestige may impact self-esteem in ways that make its effect not uniformly positive. It also suggests that there may be self-esteem differences between those who do and don't have children in ways that have consequences for self-esteem's effect on completing college or above.</t>
-  </si>
-  <si>
     <t>age, physhlthevnt, parOccPrstg, numKids</t>
   </si>
   <si>
@@ -549,9 +423,6 @@
     <t>age, parOccPrstg, numKids</t>
   </si>
   <si>
-    <t>Positive Affect was not a robust predictor of higher education in either the permutation tests or in the observed curve. Looking at the curve, there are a few small patterns, but the most notable and important pattern is that controllinng for parental occupational prestige almost completely  attennuates  the relationship. Moreover, controlling for both parental occupational prestige and age pushes the effect even more toward null.</t>
-  </si>
-  <si>
     <t>age, parOccPrstg</t>
   </si>
   <si>
@@ -561,18 +432,9 @@
     <t>Openness was a robust positive predictor of higher education in the permutation tests but not in the observed specification curve (in terms of significance). The effect was stronger when not controlling for age, but there was no cusp, suggesting that age was not highly influential.</t>
   </si>
   <si>
-    <t>Neuroticism  was not a robust predictor higher education in either the observed curve or in the permutation tests. However, Neuroticism had a unique relationship to the covariates. When controlling for age, Neuroticism predicted lower odds of higher education, often significantly. However, when controlling for age, Neuroticism was a negative predictor higher education. The negative effect was strongest when controlling for both age and gender, but specificaitons that included gender but not age were still positive, suggesting that age is the most consequential covariate.</t>
-  </si>
-  <si>
-    <t>Locus of Control was a robust positive predictor of higher education in the permutation test but not the observed curve (in terms of significance). However, there are two cusps in the curve suggesting consequential covariates. First, the effect was weakest when controlling for previous health events and the number of children an individual has. There is a slight uptick when major health events are not controlled for but number kids is as well as a second uptick when major health events is again controlled for but parental occupational prestige and number kids are not. Together this suggets that parental occupational prestige, experiencing a health event, and having children may influence one's Locus of Control in ways that has consequences for completing higher education.</t>
-  </si>
-  <si>
     <t>physhlthevnt, parOccPrstg, numKids</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative Affect was not a robust predictor of higher education in the observed specification curve or permutation tests. Looking at the curve, it's clear that covariates are consequential for the direction, magnitude, and significance of the association, with Negative Affect predicting lower odds of higher education when not controlling  for parental occupational prestige and number of children, and positive when not controlling for age. A number of speciifications ar the far right are significant, but there is no clear pattern of covariates in the lower part fo the curve that appears to capture when significance flips. </t>
-  </si>
-  <si>
     <t>IQ was a robust predictor in the permutation tests but not in the observed specification curve (in terms of significance). Looking at the curve, the association is largely positive,  but there are two cusps -- one small and one large -- that suggest the presence of consequential covariates. First, there is a small cusp when age is not controlled for, suggesting that age largely attenuates the effect. Second, there is a larger cusp when parental occupational prestige and number of children are not controlled for, suggesting that controlling for these two variables, which appear to share variance with one another, also share variance IQ and higher education. It may be that each of these act as barriers to completing higher education, regardless of IQ, in ways that attenuate the relationship.</t>
   </si>
   <si>
@@ -585,30 +447,15 @@
     <t>numKids, parOccPrstg, physhlthevnt age</t>
   </si>
   <si>
-    <t>Conscientiousness was a robust negative predictor of higher education in two of the three permutation tests but not in the oberved curve. In the observed curve, there is a cusp when age is controlled for and parental occupational prestige and number of chidlren are not. The effect is strongest when neither marriage nor age are controlled for. Together, this suggests that age graded processes that influence both levels of Conscieniousness and completing higher education likely drive the relationship between the two.</t>
-  </si>
-  <si>
-    <t>age, married, numKids, parOccPrstgg</t>
-  </si>
-  <si>
     <t>Agreeableness was not a robust predictor of higher education in the permutation tests or in the specification curve. Looking at the curve, the strongest and  only significant effect are when controlling for gender and parental occupational prestige but not age. when controlling for both age and gender, there is a clear attenuating cusp in the association. Moreover, when not controlling for parental occupational prestige and number of children, the effect becomes positive, particularly when controlling for age. Thus, it seems that any predictive effect of Agreeableness on higher education appears to be due to age, gender, SES, and life stage differences rather than Agreeableness.</t>
   </si>
   <si>
     <t>age, gender, parOccPrstg, numKids</t>
   </si>
   <si>
-    <t>Social support was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. Indeed, age appears to drive much of the association between Social Support and starting a first job, with almost no significant specifications including age. Moreover, tis effect appears particularly strong when also controlling for race, such that controlling for both results in almost complete attenuation of the results. This suggests that age related processes that effect social support and starting a first job as well as race related experiences that may provide opportunities or barriers for starting a first job drive this effect.</t>
-  </si>
-  <si>
     <t>age, race, parDivorce</t>
   </si>
   <si>
-    <t>Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. Indeed, age appears to drive much of the association between Self-Esteem and starting a first job, with almost no significant specifications including age.  This suggests that age related processes that effect Self-Esteem drive this effect.</t>
-  </si>
-  <si>
-    <t>Satisfaction with life was not a robust predictor of starting a first job in either the permutation tests or the the observed specification curve. Looking at the curve suggests that race, parental occupational prestige, and parental divorce were the most influential factors, with race and parental divorce attenuating the relationship, especially when coupled with parental occuptional prestige. This likely suggests that experiences related to race, parental occupational prestige, and parental divorce influence both parental divorce and the likelihood of starting a first job.</t>
-  </si>
-  <si>
     <t>race, parOccPrstg, parDivorce</t>
   </si>
   <si>
@@ -624,9 +471,6 @@
     <t xml:space="preserve">Optimism was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. </t>
   </si>
   <si>
-    <t xml:space="preserve">Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve. </t>
-  </si>
-  <si>
     <t>Positive Affect was not a robust predictor of starting a first job in either the permutation tests or in the observed curve. From the curve, it appears that not controlling for age suggests a negative relationship between Positive Affect and starting a first job, while controlling for age,  race, and parental occupational prestige together suggest a robust positive relationship between the two. It appears that positive affect's predictive effect on getting a first job depends on both age and SES. This could be because individuals with less educated parents, for example, are more likely to get customer facing jobs earlier, which often use selection criterion based on exuded positive affect.</t>
   </si>
   <si>
@@ -645,25 +489,586 @@
     <t>Negative Affect was not a robust predictor of starting a first job in either the permutation tests or in the observed curve.  From the curve, it appears that Neuroticism predicts lower odds of starting a first job, but only when controlling for age. This likely indicates that Neuroticism's impact on starting a first job differ across different age groups.  Moreover, it's notable that failing to control for age in negative affect - first job associations suggests an effect in the opposite direction. In either direction, the effect is also stronger when controlling for parental occupational prestige which may mean that negative affect predicts who starts a first job differently over SES groups.</t>
   </si>
   <si>
-    <t xml:space="preserve">Locus was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. Although a number of the associations are significant, many of the effect sizes are barely larger than the lower bound of the 95% permuted interval. Moreover, beyond education and a major physical helath event, there do not appear to be obvious patterns in which covariates are consequential to the relationship. </t>
-  </si>
-  <si>
     <t>Intelligence was a robust predictor or starting a first job, both in the permutation tests and in the observed curve. Optimism was a robust predictor or starting a first job, both in the permutation tests and in the observed curve.  From the curve, it is clear there are no cusps. Indeed the only pattern is that, on average, not controlling for age results in a negligible attenuation of the effect.</t>
   </si>
   <si>
-    <t>Extraversion was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. From the curve, it is clear that there is no effect controlling for neither race nor parental divorce and that the effect is strongest when not accounting for age and parental education. This likely suggests that for individuals of different races or individuals whose parents have different marital statuses, Extraversion may  influence their levels on Extraversion and likelihood of getting a job.</t>
-  </si>
-  <si>
     <t>race, parDivorce</t>
   </si>
   <si>
-    <t>Depressionn was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaitonn curve.  From the curve, the only clear cusp occurs when controlling for parental occupational prestige (i.e. the effect is larger when not controlling for it). However, given that parental occupational prestige is later also in specifications that have a positive association, the pattern around this is ultimately unclear.</t>
-  </si>
-  <si>
-    <t>Conscientiousness was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specificaiton curve. Despite this, there do appear to be a few consequential covariates. First, the effect appears very strong and negative when not controlling for age, race, and parental divorce and weaker and negative when controlling for these. In the right side of the curve, Conscientiousness does show the predicted positive effect of Conscientiousness on starting a first job, but the pattern isn't immediately clear as it seems to be due age, but age was included in specifications to the left of that, and the pattern remains unclear.</t>
-  </si>
-  <si>
     <t>Agreeableness was not a robust predictor of starting a first job in either the permutation tests or in the observed curve. From the curve, it does appear that age graded differences may mask an effect assuming It exists. However, examining the rest of the specifications does not paint a clear picture underscoring why there is a cusp on the far right side of the curve.</t>
+  </si>
+  <si>
+    <t>age, alcohol</t>
+  </si>
+  <si>
+    <t>age, physhlthevnt, married</t>
+  </si>
+  <si>
+    <t>age, married</t>
+  </si>
+  <si>
+    <t>Conscientiousness was not a robust predictor of a major health event, either in the permutation tests or in the observed curve. Th only observable patterns are that the effect is negative and strongest when not controlling for BMI and self-rated health and strongest and most positive when not controlling for age and race. The largest cusp in the curve appears to be due to age, such that the risk effect of Conscientiousness becomes a protective effect when controlling for age and suggests that Conscientiousness may have different associations with major health events across the lifespan.</t>
+  </si>
+  <si>
+    <t>age, race, SRhealth, BMI</t>
+  </si>
+  <si>
+    <t>Social Support was a robust predictor of a major health event in two of the three permutation tests and a differential predictor in the observed curves. The patterns appear to largely be due to age and race, with the effect being strongest and significant when controlling for race. Age appears to attenuate the relationship. This may suggest that Social Support's protective effect against major health events is only true for some racial and ethnic groups, which could be due to health disparities in health care and access.</t>
+  </si>
+  <si>
+    <t>race, age, alcohol</t>
+  </si>
+  <si>
+    <t>Self-Esteem was a robust predictor of a major health event in two of the three permutation tests and a differential predictor in the observed curves. The effect is strongest and significant when controlling for age but not self-rated health and weakest when not controlling for age, which may mean that self-esteem's predictive relationship with health events differs across the lifespan and may not be as protective at all points in the lifespan.</t>
+  </si>
+  <si>
+    <t>Positive Affect was a robust predictor of a major health event in two of the three permutation tests and a differential predictor in the observed curves. The patterns appear to largely be due to age and race, with the effect being strongest and significant when controlling for race. Age appears to exaggerate the relationship the relationship, but to a lesser degree than race. This may suggest that Positive Affect's protective effect against major health events is only true for some racial and ethnic groups, which could be due to health disparities in health care and access.</t>
+  </si>
+  <si>
+    <t>age, race, SRhealth</t>
+  </si>
+  <si>
+    <t>Neuroticism was a robust risk factor of a major health event in two of the three inference tests and a differential predictor in the specification curve. The relationship was strongest when accounting for both race and age, but self-rated health slightly attenuated this. Despite this, it appears that Neuroticism has a differential impact on major health events at different points throughout the lifespan and for different racial groups. Moreover, people appear to slightly anticipate health events, reporting lower self-rated health as one approaches.</t>
+  </si>
+  <si>
+    <t>Negative Affect was a robust risk factor of a major health event in two of the three inference tests and a differential predictor in the specification curve. The relationship was strongest when accounting for both race and age, but self-rated health slightly attenuated this. Despite this, it appears that Negative Affect has a differential impact on major health events at different points throughout the lifespan and for different racial groups. Moreover, people appear to slightly anticipate health events, reporting lower self-rated health as one approaches.</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust negative predictor of a major health event in both the observed curve and the permutation tests. Although the effect was slightly stronger when not controlling or self-rated health, the effect remained reliable even when it was controlled for. It's possible that individual's who feel their health is worse also feel like they have less control over their environments, but that control over environments is still predictive of major health events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligence was a robust positive predictor of major health events in the permutation curve, but, in terms of significance, less so in the observed curve. Looking at the curve, it's clear the effect is weakest when not controlling for parental occupational prestige, parental education, and age, suggesting that intelligence's relationship to major health events likely differs across age and SES groups. </t>
+  </si>
+  <si>
+    <t>age, parOccPrstg, parEdu</t>
+  </si>
+  <si>
+    <t>Extraversion was not a robust predictor of health events, either in the inference tests or in the observed curve. Moreover, there were no clear patterns in what drove differential effect sizes and significance in the observed curve, with the exception that Extraversion only appeared to have a protective effect not controlling for self-rated health and age.</t>
+  </si>
+  <si>
+    <t>Depression was a robust risk factor of major health events in the permutation tests, but, in terms of significance, less so in the observed curve. The effect is weakest when not controlling for age, alcohol, and smoking, suggesting that Depression's relationship to major health events differs across these negative health behaviors and a function of age, but their effect was largely negligible.</t>
+  </si>
+  <si>
+    <t>Openness was not a robust predictor of health events, either in the inference tests or in the observed curve. Moreover, there were no clear patterns in what drove differential effect sizes and significance in the observed curve, with the exception that Openness only appeared to have a protective effect not controlling for self-rated health and age.</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor of a major health event in two of the three permutation tests and a differential predictor in the observed curves. The patterns appear to largely be due to age and race, with the effect being strongest and significant when controlling for race. Age appears to exaggerate the relationship the relationship, but to a lesser degree than race. Self-rated health attenuates the relationship. Together, this may suggest that optimism's protective effect against major health events is only true for some racial and ethnic groups, which could be due to health disparities in health care and access.</t>
+  </si>
+  <si>
+    <t>Satisfaction with life was not a robust predictor of a major health event. From the observed curve, it appears that race is the critical covariate. When not controlling for race, Satisfaction with Life appears to have a protective effect on major health events, but when not controlling for race, it is a risk factor. Most likely, this change in direction is due to differential access to health care resources for across racial and ethnic groups that obscure Satisfaction's relationship to health.</t>
+  </si>
+  <si>
+    <t>Agreeableness was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Agreeableness and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Agreeableness are driving this.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Conscientiousness and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Conscientiousness are driving this.</t>
+  </si>
+  <si>
+    <t>Extraversion was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Extraversion and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Extraversion are driving this.</t>
+  </si>
+  <si>
+    <t>Intelligence was a robust positive predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age is not controlled for, meaning that the difference being driven by age. It appears that age shares variance with both Intelligence and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Intelligence are driving this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus of control was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. Moreover, there is no clear pattern of covariates that explains the range of effect sizes displayed. </t>
+  </si>
+  <si>
+    <t>Negative Affect was a robust predictor of unemployment, both in the permutation tests and in the observed curve. The effect appears to be weaker when controlling for age and stronger when controlling for parental occupational prestige. The association with parental occupational prestige likely suggests that parental occupational prestige captures unexplained variance in the negative affect - unemployment relationship.</t>
+  </si>
+  <si>
+    <t>Neuroticism was not a robust predictor of unemployment in either the permutation tests or in the observed curve (in terms of significance). However, looking at the curve, there are a few noteworthy patterns. First, controlling for age attenuated the effect size. Second, controlling for age, but not  alcohol use had the weakest effect size, such that controlling for alcohol use increased the effect size. Finally, not controlling for age but controlling for alcohol use had the highest effect size. Likely this indicates that age has shared variance with both Neuroticism and unemployment but that Neuroticism's predictive power varies depending on alcohol use. It could be that individuals who are high in neuroticism and drink are more vulnerable to unemployment, for example.</t>
+  </si>
+  <si>
+    <t>Openness was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Openness and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Openness are driving this.</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor of unemployment, both in the permutation tests and in the observed curve. The effect appears to be stronger when controlling for alcohol use and age. Indeed, age appears to drive much the pattern of significance of the association. This suggest that age and alcohol share variance with Optimism and unemployment that Optimism and unemployment do not share. It also likely means that alcohol use differentially affects unemployment as a function of Optimism.</t>
+  </si>
+  <si>
+    <t>Positive Affect was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Positive Affect and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Positive Affect are driving this.</t>
+  </si>
+  <si>
+    <t>Satisfaction with Life was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when age and marriage are not controlled for, with much of the difference being driven by age. It appears that age shares variance with both Satisfaction with Life and unemployment, which may indicate that age-graded changes in either the odds of unemployment or level of Satisfaction are driving this.</t>
+  </si>
+  <si>
+    <t>Self-Esteem was a robust predictor of unemployment in two of the three permutation tests but less so in the observed specification curve (in terms of significance). Further, there is no clear pattern of covariates that explains the effect size, with a straight barely slope of  line of effect sizes. The only very, very slight pattern is that the strongest effect sizes don't control for marriage, but the difference is too slight to interpret.</t>
+  </si>
+  <si>
+    <t>Social Support was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. From the curve, the strongest effects occur when race is not controlled for and the weakest when race is controlled for but  age is not. This suggests that age and race share variance with social support and unemployment that they do not share with each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. </t>
+  </si>
+  <si>
+    <t>Social Support was a robust positive predictor of marriage both in the observed curve and in the permutation tests. From the observed curve, it is clear that smoking, alcohol use, and age are the key covariates, with controlling for smoking and alcohol use exaggerating the relationship and controlling for age attenuating the relationship. This may indicate that social support's predictive power of marriage operates different for smokers/drinkers and non-smokers/drinkers.</t>
+  </si>
+  <si>
+    <t>age, alcohol, smokes</t>
+  </si>
+  <si>
+    <t>race, parOccPrstg, age</t>
+  </si>
+  <si>
+    <t>Neuroticism was not a robust predictor of marriage either in the observed curve or the permutation tests. Looking at the curve, the only obvious consequential covariate is age (and, to a lesser degree, alcohol use), which appears to attenuate the relationship. It seems that age-graded changes in Neuroticism and the likelihood of a first marriage drive much of the predictive relationship between the two.</t>
+  </si>
+  <si>
+    <t>Negative Affect was not a robust predictor of marriage either in the observed curve or the permutation tests. Looking at the curve, the only obvious consequential covariate is age (and, to a lesser degree, alcohol use), which appears to attenuate the relationship. It seems that age-graded changes in Negative Affect and the likelihood of a first marriage drive much of the predictive relationship between the two.</t>
+  </si>
+  <si>
+    <t>exercise, parEdu</t>
+  </si>
+  <si>
+    <t>Extraversion was a robust predictor of marriage both in the observed curve and the permutation tests. Looking at the curve, the only obvious consequential covariate is age (and, to a lesser degree, alcohol use), which appears to attenuate the relationship. It seems that age-graded changes in Negative Affect and the likelihood of a first marriage drive much of the predictive relationship between the two.</t>
+  </si>
+  <si>
+    <t>Depression was a robust predictor of marriage in two of the three permutation tests and in the observed curve. From the curve, there is no clear pattern of covariates driving the direction, magnitude, and significance of the association, with the possible exceptions of age and major health events, which appear to eliminate the significance of the effect and to be associated with attenuated effect sizes.</t>
+  </si>
+  <si>
+    <t>physhlthevnt, age</t>
+  </si>
+  <si>
+    <t>age, alcohol, race, parOccPrstg</t>
+  </si>
+  <si>
+    <t>age, SRhealth, gender, alcohol, physhlthevnt</t>
+  </si>
+  <si>
+    <t>Openness was not a robust predictor of moving in with a partner in the observed curve but was a robust predictor in the permutation tests. Looking at the curve, the effect was strongest when not controlling for age and weakest when not controlling for alcohol. But there were no cusps or significance change suggesting that these variables played a consequential role in the effect.</t>
+  </si>
+  <si>
+    <t>age, alcohol, race</t>
+  </si>
+  <si>
+    <t>age, parOccPrstg, exercise</t>
+  </si>
+  <si>
+    <t>grsWages, age, race, parDivorce</t>
+  </si>
+  <si>
+    <t>age, smokes, grsWages</t>
+  </si>
+  <si>
+    <t>Locus of control was not a robust predictor of moving in with a partner, either in the observed curve or in the permutation tests. Furthermore, there are no clear consequential covariates that explain the difference in direction, magnitude, and significance across specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression was not a  robust predictor of moving in with a partner, either in the observed curve or in the permutation tests. Looking at the curve, the effect appears to be most negative when not controlling for age and most positive when not controlling for parental occupational prestige, but these were not appear to be greatly consequential. </t>
+  </si>
+  <si>
+    <t>Conscientiousness was a differentially robust predictor of moving in with a partner, both in the observed curve and in the permutation tests. From the curve, it's clear that age is consequential to the direction of the relationship, with specifications that did not being negative and those that did being positive. There also appeared to be an interplay between age and alcohol use such that controlling for alcohol use appeared to make the association more negative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age, alcohol  </t>
+  </si>
+  <si>
+    <t>Satisfaction with life was a differential predictor of moving in with a partner, both in the observed curve and in the permutation tests. From the curve, alcohol use appears to be most critical for both magnitude and significance because it tended to exaggerate the relationship (i.e. push it most negative).</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>Social support was not a robust predictor of retirement in the specification curve but was a robust predictor in the permutation tests. From the curve, the only strong pattern appears to be that age attenuates the effect, which likely suggests that Social Support Predicts retirement differently across age groups.</t>
+  </si>
+  <si>
+    <t>age, married, grsWages</t>
+  </si>
+  <si>
+    <t>age, SRhealth, grsWages, married,  numKids</t>
+  </si>
+  <si>
+    <t>age, SRhealth, physhlthevnt, grsWages, exercise</t>
+  </si>
+  <si>
+    <t>Openness was a differential predictor of retirement in the observed curve and a robust predictor in the permutation tests. Age and parental education appear to be the most consequential covariates, with both age and parental education attenuating the relationship, particularly when both were included.</t>
+  </si>
+  <si>
+    <t>age, parEdu</t>
+  </si>
+  <si>
+    <t>age, SRhealth, physhlthevnt, grsWages</t>
+  </si>
+  <si>
+    <t>Locus of control was a robust positive predictor of retirement in the permutation tests but less so in the observed curve. In the curve, the relationship was smallest when not controlling for age, self-rated health, and major health events, suggesting that locus of control appears to differently predict retirement as a function of age and an individual's health.</t>
+  </si>
+  <si>
+    <t>age, physhlthevnt, SRhealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Esteem was a differentially robust predictor of retirement, both in the permutation tests and in the observed curve. From the curve, age is the most consequential covariate and almost completely attenuates the relationship. Moreover, marriage and gross wages appear to further impact this relationship, gross wages further attenuating the relationship and marriage appearing to exaggerate it. </t>
+  </si>
+  <si>
+    <t>Depression was a robust positive predictor of depression in the permutation tests but not the observed curve. In the observed curve, the relationship was weakest when not controlling for gross wages (i.e. gross wages exaggerates the relationship) and strongest when not controlling for age and major health events (i.e. attenuating relationships).</t>
+  </si>
+  <si>
+    <t>age, physhlthevnt, grsWages</t>
+  </si>
+  <si>
+    <t>Agreeableness was a differentially robust predictor of retirement, both in the observed curve and the permutation tests. From the curve, age is clearly the most consequential covariate, strongly attenuating the magnitude and significance of the relationship. The effect was also stronger when controlling for self-rated health.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a differentially robust predictor of retirement, both in the observed curve and the permutation tests. From the curve, age is clearly the most consequential covariate, strongly attenuating the magnitude and significance of the relationship. The effect was also stronger when controlling for self-rated health and gross wages.</t>
+  </si>
+  <si>
+    <t>age, SRhealth, grsWages</t>
+  </si>
+  <si>
+    <t>Satisfaction with life was not a robust predictor of volunteering in the observed curve but was in the permutation tests. From the curve, there are almost no patterns that appear to effect the direction, magnitude, and significance of the effect. The only exceptions appear to be that the self-rated health and exercise appear to attenuate the relationship between SWL and volunteering, suggesting that health and fitness may act as barriers to volunteering.</t>
+  </si>
+  <si>
+    <t>parOccPrstg, age, education, gender, exercise</t>
+  </si>
+  <si>
+    <t>SRhealth, exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism is a robust predictor of volunteering in the specification but less so in the observed curve (in terms of significance). From the curve, there are few patterns that appear to be associated with the direction, magnitude, and significance of the relationship. </t>
+  </si>
+  <si>
+    <t>age, education, SRhealth</t>
+  </si>
+  <si>
+    <t>Neuroticism was a robust negative predictor of volunteering, both in the observed curve and in the permutation tests. In the observed curve the only significant specification were those that controlled for age, which suggests that age differences may mask the relationship. In contrast, self-rated health appeared to attenuate the relationship</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust positive predictor of volunteering in the permutation tests but not in the observed curve (in terms of significance). In the curve, there appears to be an interplay between self-rated health and age, such that controlling for both, particularly also with parental occupational prestige, appears to result the weakest effect sizes.</t>
+  </si>
+  <si>
+    <t>age, SRhealth, parOccPrstg</t>
+  </si>
+  <si>
+    <t>parOccPrstg, age, grsWages</t>
+  </si>
+  <si>
+    <t>SRhealth, parOccPrstg, age</t>
+  </si>
+  <si>
+    <t>Agreeableness was a robust positive predictor of volunteering in the permutation tests but not in the observed curve. In the observed curve, the effect was stronger when controlling or age and parental occupational prestige and weaker when controlling for self-rated health. This suggests that the link between Agreeableness and volunteering may differ across levels of SES and over different age groups.</t>
+  </si>
+  <si>
+    <t>Positive Affect was a differential positive predictor of volunteering, both in the observed curve and in the permutation tests. In the curve, the effect is strongest and only significant when controlling or parental occupational prestige. When controlling for self-rated health in addition to parental occupational prestige, this relationship was slightly weaker.</t>
+  </si>
+  <si>
+    <t>SRhealth, parOccPrstg</t>
+  </si>
+  <si>
+    <t>exercise, physhlthevnt, parOccPrstg</t>
+  </si>
+  <si>
+    <t>parOccPrstg, exercise</t>
+  </si>
+  <si>
+    <t>smokes, physhlthevnt, exercise</t>
+  </si>
+  <si>
+    <t>race, grsWages, age</t>
+  </si>
+  <si>
+    <t>age, gender, parOccPrstg</t>
+  </si>
+  <si>
+    <t>race, parDivorce, parEdu</t>
+  </si>
+  <si>
+    <t>age, physhlthevnt</t>
+  </si>
+  <si>
+    <t>SRhealth, race, physFunc, parDivorce, age, smokes</t>
+  </si>
+  <si>
+    <t>parOccPrstg, gender</t>
+  </si>
+  <si>
+    <t>grsWages, gender</t>
+  </si>
+  <si>
+    <t>parDivorce, race, physhlthevnt, exercise</t>
+  </si>
+  <si>
+    <t>race, exercise, age</t>
+  </si>
+  <si>
+    <t>race, parDivorce, age</t>
+  </si>
+  <si>
+    <t>SRhealth, alcohol</t>
+  </si>
+  <si>
+    <t>grsWages, alcohol, smokes</t>
+  </si>
+  <si>
+    <t>age, gender, race, smokes, alcohol</t>
+  </si>
+  <si>
+    <t>Depression predicted lower odds of child birth reliably only in a subset of specifications. Despite this, there is almost no pattern to which specifications were significant, as can be seen from the mix of red and black across all rows of the lower panel of the figure. There are, however, a few patterns that did not exhibit an effect on significance but did on magnitude and direction, with not controlling for exercise and previous major health events attenuating the effect and not controlling for parental occupational prestige pushing the effect toward higher odds of having a child.</t>
+  </si>
+  <si>
+    <t>Extraversion reliably predicted higher odds of having a child across almost all specifications. The effect is stronger when controlling for race and parental divorce, suggesting that these demographic characteristics may be consequential in Extraversion development in ways that have implications for the odds of having a child.</t>
+  </si>
+  <si>
+    <t>Only one of the three inference tests suggested that IQ was reliably associated with having a child, which suggests that the overall effect may not be very robust. There is no clear pattern to the specification curve of their relationship. There are two slight spikes in the curve when not controlling for parental occupational prestige and exercise but these are largely inconsequential.</t>
+  </si>
+  <si>
+    <t>Negative Affect was robustly associated with higher odds of having a child according to two of the three inferential tests. From the curve, it appears that controlling for race and gross income attenuate  any protective effect Negative Affect may have on child birth, which suggests that these sociodemographic characteristics share overlapping variance with both Negative Affect and child birth. In addition, not until age is removed as a covariate is Negative Affect associated with higher odds of having a child, which suggests that age is much more predictive of child birth than Negative Affect.</t>
+  </si>
+  <si>
+    <t>Neuroticism was not robustly associated with child birth across any specifications. From the curve, there are no clear key covariates although controlling for sociodemographic characteristics like age, gender, and parental occupational prestige appear to attenuate the effect.</t>
+  </si>
+  <si>
+    <t>Agreeableness was not a robust predictor of a child moving out, either in the permutation tests or in the observed curve. Examining the curve, the most consequential covariate appears to be age, with the only demonstrated (non-significant) protective effects being when age is not controlled for. Moreover, there is a slight peak and significance change on the far right of the curve, but it is not clear what covariate(s) are driving this.</t>
+  </si>
+  <si>
+    <t>Overall, IQ was not a robust predictor of a child moving out, either in the inference tests or in the specification curve. Despite this, there are a number of important patterns. First, controlling for parental education appears to attenuate the relationship, as does controlling for age. The only significant specifications control for race, which likely indicates that IQ's relationship to a child moving out varies as a function of race, such that controlling for race reduces non-shared variance between the two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openness was not robustly associated with a child moving out, either in the permutation tests or in the observed curve. From the observed curve, controlling for race flips the direction of the effect from risk to protective. Beyond race, there does not appear to other consistent patterns in which covariates are consequential, which may suggest that race-related experiences may drive levels on Openness and the likelihood of a child moving out, with more Open parents not overall likely to have children move out sooner. </t>
+  </si>
+  <si>
+    <t>Satisfaction with life was a robust predictor in two of the three permutation based tests and differentially robust in the specification curve. It's differential robustness appears to be a factor of race, and the number of kids a participant had, with race attenuating the Satisfaction - child moves out relationship and number of kids slightly exaggerating it. Moreover, it appears that race and number of kids share variance such that controlling for both attenuates the relationship and pushes it toward non-significant.</t>
+  </si>
+  <si>
+    <t>Conscientiousness demonstrated a robust protective effect on criminal justice system contact. Moreover, no covariates were particularly consequential, although the effect seemed stronger when controlling for race and not controlling for gender.</t>
+  </si>
+  <si>
+    <t>Depression was not a robust predictor of criminal justice system contact in the observed curve, even though it was in the permutation tests. Moreover, although the effect size was weakest when not controlling for major health events, gender, and age, there was largely no pattern explaining how Depression predicts criminal justice system contact.</t>
+  </si>
+  <si>
+    <t>Extraversion was not a robust predictor of contact with the criminal justice system in either the permutation tests of the observed specification curve. However, there were a number of consequential variables, in terms of direction, magnitude, and significance. First, the only significant specifications were those that controlled for gender and race. Indeed, there was a strong attenuating cusp when gender was controlled for suggesting that gender differences drive a seeming protective effect of Extraversion on contact with the criminal justice system. When not controlling for race, Extraversion appeared to be a risk factor for criminal activity. Together, this suggests that race and gender together largely attenuate the effect of Extraversion on criminal justice system contact. In other words, the two appear to share non-overlapping variance with Extraversion and criminal justice system contact.</t>
+  </si>
+  <si>
+    <t>In terms of significance in the observed curve, Locus of Control was not a robust predictor of criminal justice system contact. However, in the permutation tests, it did demonstrate a reliable protective effect of Locus of Control on criminal justice system contact. There were a few consequential covariates, with controlling for previous physical health events attenuating the effect and not controlling for either parental occupational prestige and the number of children also attenuating the effect.</t>
+  </si>
+  <si>
+    <t>Openness was a robust risk factor for contact with the criminal justice system in the permutation tests but less so in the observed curve (in terms of significance). Moreover, with the small exceptions of race, and education having a exaggerating effect and marriage, age, and gender having an attenuating effect there were no clear consequential covariates.</t>
+  </si>
+  <si>
+    <t>Optimism was not a robust predictor in the permutation tests and a differentially robust predictor of contact with the criminal justice system in the  observed specification curve. Moreover, there are no key variables driving this association, with the exception of the effect being most protective when not controlling for age and significant only when controlling for race. I suspect that in this case the race effect driving significance but not effect size is due to studies, like MIDUS, that don't have a representative race breakdown.</t>
+  </si>
+  <si>
+    <t>Self-Esteem had a robust protective effect on contact with the criminal justice system. Although the effect was strongest when not controlling for major health events, education, and age, these covariates did not have any great effect on  the magnitude of the association. In contrast, there are two small attenuating cusps, once when not controlling for gender, and one when not controlling for parental occupational prestige and the number of kids. suggesting that controlling for these variables captures variance with self-esteem and criminal justice system contact that is not shared between the two.</t>
+  </si>
+  <si>
+    <t>Somewhat unexpectedly, Agreeableness was robustly associated with higher odds of divorce, both in the curve and in two of the three inferential tests. Despite this, there are a few patterns worth noting. It appears that when alcohol use but not gross wages and gender are controlled for, this slightly boosts the relationship between Agreeableness and divorce. This may indicate a slight suppression effect when these indicators are included together in the model.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a reliable predictor of higher odds of divorce, both in the inferential-based tests and in the observed specification curve. There appears to a slight shift in the curve in a few specifications when age is controlled for but self-rated health is not in which the magnitude of the association slightly increases. This likely indicates that age and self-rated health share variance that they do not share with either Conscientiousness or divorce but do share with other covariates. Despite this, the overall association is robust.</t>
+  </si>
+  <si>
+    <t>IQ was not very robustly association with divorce, with only one of the three inferential tests suggesting the effect is robust. An examination of the specification curve suggests that there are at least two consequential variables that attenuate IQ's association with divorce. First, controlling for race attenuates the relationship, as is clear from the cusp that appears when race is controlled  for. Second, controlling for neither exercise or age but not either one alone creates a second cusp further attenuating the relationship. While the former suggests that IQ, divorce, and race have shared variance, the latter suggests that age and exercise have non-shared variance with IQ and divorce.</t>
+  </si>
+  <si>
+    <t>Openness was robustly associated with divorce according to two of the three inference tests. However, when looking at the curve, there are a few patterns that appear to be related to the significance and (less so) to the magnitude of the effect size. Specifications including self-rated health appear to have a somewhat greater magnitude than those that don't, but this is likely not truly consequential. There is a slight increase in the steepness of the curve near the point where age is no longer controlled, suggesting that controlling for age somewhat attenuates the Openness-divorce association.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism was not robustly associated with divorce both in the observed curve and in the permutation-based inference test. However, as is clear in the figure, a few variables played a role in both the effect size and significance of the associations. Including self-rated health and alcohol use, for example, attenuated Optimism-Divorce associations, with the presence of both coupled with a small cusp in the specification curve. Including alcohol use, in particular also seemed to attenuate significance of the association, which likely indicates that alcohol use, optimism, and divorce share variance. </t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust negative predictor of higher education in two of the three permutation tests but not in the observed curve. In the observed curve, there is a cusp when age is controlled for and parental occupational prestige and number of children are not. The effect is strongest when neither marriage nor age are controlled for. Together, this suggests that age graded processes that influence both levels of Conscientiousness and completing higher education likely drive the relationship between the two.</t>
+  </si>
+  <si>
+    <t>age, married, numKids, parOccPrstg</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust positive predictor of higher education in the permutation test but not the observed curve (in terms of significance). However, there are two cusps in the curve suggesting consequential covariates. First, the effect was weakest when controlling for previous health events and the number of children an individual has. There is a slight uptick when major health events are not controlled for but number kids is as well as a second uptick when major health events is again controlled for but parental occupational prestige and number kids are not. Together this suggest that parental occupational prestige, experiencing a health event, and having children may influence one's Locus of Control in ways that has consequences for completing higher education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Affect was not a robust predictor of higher education in the observed specification curve or permutation tests. Looking at the curve, it's clear that covariates are consequential for the direction, magnitude, and significance of the association, with Negative Affect predicting lower odds of higher education when not controlling  for parental occupational prestige and number of children, and positive when not controlling for age. A number of specifications are the far right are significant, but there is no clear pattern of covariates in the lower part of the curve that appears to capture when significance flips. </t>
+  </si>
+  <si>
+    <t>Neuroticism  was not a robust predictor higher education in either the observed curve or in the permutation tests. However, Neuroticism had a unique relationship to the covariates. When controlling for age, Neuroticism predicted lower odds of higher education, often significantly. However, when controlling for age, Neuroticism was a negative predictor higher education. The negative effect was strongest when controlling for both age and gender, but specifications that included gender but not age were still positive, suggesting that age is the most consequential covariate.</t>
+  </si>
+  <si>
+    <t>Positive Affect was not a robust predictor of higher education in either the permutation tests or in the observed curve. Looking at the curve, there are a few small patterns, but the most notable and important pattern is that controlling for parental occupational prestige almost completely  attenuates  the relationship. Moreover, controlling for both parental occupational prestige and age pushes the effect even more toward null.</t>
+  </si>
+  <si>
+    <t>Self-Esteem was not a robust predictor of higher education in either the specification curve or the permutation tests. However,  there are a few notable patterns in the curve. Throughout about 75% of the curve, there appears to be a protective effect of Self-Esteem and higher education. The effect is strongest when controlling for previous major health events and slightly attenuated by age. The effect size is slightly reduced when  not including either of those variables. However, there appears to be an interesting interplay between major health events and parental occupational prestige / number of children, such that when controlling for major health events but not  parental occupational prestige and number of children, self-esteem appears to predict higher odds of completing higher education. This likely suggests that individuals with more parental occupational prestige may impact self-esteem in ways that make its effect not uniformly positive. It also suggests that there may be self-esteem differences between those who do and don't have children in ways that have consequences for self-esteem's effect on completing college or above.</t>
+  </si>
+  <si>
+    <t>In the permutation tests, Social Support was a robust predictor of higher education, but in the observed curve  it was less robust. Examining the curve, age appears to be the biggest driver, with an exaggerating cusp in the curve and a smattering of significant estimates when age is not included in the model. Gender appears to play a smaller role with the largest effect sizes when age is controlled for being when gender is not controlled for.  This may suggest that age graded experiences, whether in the form of expectations or developmental processes, may drive these relationships.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. Despite this, there do appear to be a few consequential covariates. First, the effect appears very strong and negative when not controlling for age, race, and parental divorce and weaker and negative when controlling for these. In the right side of the curve, Conscientiousness does show the predicted positive effect of Conscientiousness on starting a first job, but the pattern isn't immediately clear as it seems to be due age, but age was included in specifications to the left of that, and the pattern remains unclear.</t>
+  </si>
+  <si>
+    <t>Depression was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve.  From the curve, the only clear cusp occurs when controlling for parental occupational prestige (i.e. the effect is larger when not controlling for it). However, given that parental occupational prestige is later also in specifications that have a positive association, the pattern around this is ultimately unclear.</t>
+  </si>
+  <si>
+    <t>Extraversion was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. From the curve, it is clear that there is no effect controlling for neither race nor parental divorce and that the effect is strongest when not accounting for age and parental education. This likely suggests that for individuals of different races or individuals whose parents have different marital statuses, Extraversion may  influence their levels on Extraversion and likelihood of getting a job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. Although a number of the associations are significant, many of the effect sizes are barely larger than the lower bound of the 95% permuted interval. Moreover, beyond education and a major physical health event, there do not appear to be obvious patterns in which covariates are consequential to the relationship. </t>
+  </si>
+  <si>
+    <t>Satisfaction with life was not a robust predictor of starting a first job in either the permutation tests or the  observed specification curve. Looking at the curve suggests that race, parental occupational prestige, and parental divorce were the most influential factors, with race and parental divorce attenuating the relationship, especially when coupled with parental occupational prestige. This likely suggests that experiences related to race, parental occupational prestige, and parental divorce influence both parental divorce and the likelihood of starting a first job.</t>
+  </si>
+  <si>
+    <t>Self-Esteem was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. Indeed, age appears to drive much of the association between Self-Esteem and starting a first job, with almost no significant specifications including age.  This suggests that age related processes that effect Self-Esteem drive this effect.</t>
+  </si>
+  <si>
+    <t>Social support was a robust predictor of starting a first job in two of the three permutation tests but less so in the observed specification curve. Indeed, age appears to drive much of the association between Social Support and starting a first job, with almost no significant specifications including age. Moreover, tis effect appears particularly strong when also controlling for race, such that controlling for both results in almost complete attenuation of the results. This suggests that age related processes that effect social support and starting a first job as well as race related experiences that may provide opportunities or barriers for starting a first job drive this effect.</t>
+  </si>
+  <si>
+    <t>Agreeableness is a robust predictor or marriage, both in the observed curve and in the permutation tests. Looking t the curve, it appears that controlling or age tends to exaggerate the relationship. This may indicate that Agreeableness is generally a robust predictor but not accounting for age can attenuate that effect.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was not a robust predictor of marriage, either in the observed curve or in the permutation tests. Looking at the curve, there appears to a somewhat puzzling interplay among age, alcohol use, parental occupational prestige, and race. Age both attenuates the relationship and changes it's sign. It appears that the effect is stronger when controlling for each of these together and strongest when controlling for all of these but alcohol use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligence was a robust positive predictor of marriage both in the observed curve and in the permutation tests. From the curve, it is clear that exercise partially -- but not completely -- attenuates this relationship, as does parental education. Parental education may suggest that SES related experiences impact the relationship, but the relationship with exercise is more difficult to interpret. It could be that it captures how attractive a participant is, which has been shown to predict relationships in previous studies, but it have no direct measure of this to test such a conclusion. </t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust positive predictor of marriage in two of the three permutation tests but less so in the observed curve. Rom the curve, the only consequential covariate is parental occupational prestige such that it tended to attenuate the significance and magnitude of the effect. Thus, it may be that socioeconomic related experiences influence levels of locus of control in ways that largely capture its predictive relationship with marriage.</t>
+  </si>
+  <si>
+    <t>Openness was a robust positive predictor of marriage both in the observed curve and in the permutation tests. Looking at the observed curve, it's clear the effect size was strongest when not controlling or age (i.e. age attenuates the relationship). Age also appears to have a n interplay with race and parental divorce, such that the largest effect sizes that either do or do not include age do not include race and parental divorce. Together, this suggests that these variables explain some -- but not all -- of the variance between Openness and marriage.</t>
+  </si>
+  <si>
+    <t>Optimism was a robust predictor of marriage in two of the three permutation tests and a differential predictor in the observed curve. Looking at the curve. Looking at the curve, it is immediately apparent that all of the specifications that were significant included race. There is a cusp on the left side of the curve that occurs when race and parental divorce are not controlled for, where the effect size changes from negative to null then becomes more positive. However, The effect size remains positive even after re-adding race and parental divorce in, but this appears only to be true when not controlling for alcohol use. This may indicate that alcohol is a collider with parental divorce and alcohol use or it may indicate that alcohol use captures variance in Optimism and marriage that is not shared either of the them or with race or parental education.</t>
+  </si>
+  <si>
+    <t>race, parDivorce, alcohol, age</t>
+  </si>
+  <si>
+    <t>Positive Affect was not a robust predictor of  marriage either in the permutation tests or in the observed. On the observed curve, the effect size was negative when not controlling for parental occupational prestige and age or age alone. Race appears to attenuate the relationship. Together, this may suggest that experiences related to parental occupational prestige and age may govern the likelihood of marriage and levels of positive affect.</t>
+  </si>
+  <si>
+    <t>Satisfaction with life was a robust positive predictor of marriage in two of the three permutation tests but less so in the observed specification curve. Looking at the curve. It appears that parental occupational prestige attenuates the relationship, with models that do not include it having the strongest effect size. Beyond that, however, it  not immediately clear which covariates are driving change in effect size.</t>
+  </si>
+  <si>
+    <t>Self-Esteem was not a robust predictor of marriage either in the observed curve or the permutation tests. Looking at the curve, the only obvious consequential covariate is age, which appears to attenuate the relationship. It seems that age-graded changes in self-esteem and the likelihood of a first marriage drive much of the predictive relationship between the two.</t>
+  </si>
+  <si>
+    <t>IQ was not very robustly associated with mental health events, either in the permutation based inference tests or in the observed specification curves. Despite this, there is a clear cusp in the specification curve when neither gross wages or education are controlled for, suggesting that these indicators may share variance with IQ and mental health events. In addition, the effect changes direction and gets much more positive when age and exercise are not controlled for, suggesting that these pathways may act as protective factors against mental health events.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Locus of Control-mental health event associations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Locus of Control was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect appears to be attenuated when not controlling for parental occupational prestige, suggesting that it could be a pathway through which Locus of Control predicts mental health events.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Negative Affect-mental health event associations were reliably more extreme than permuted values. However, from looking at the observed specification curve, Negative Affect was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect is somewhat smaller when race and parental occupational prestige are not controlled for.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Neuroticism-mental health event associations were reliably positive and more extreme than permuted values. However, from looking at the observed specification curve, Neuroticism was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect does appear to get stronger when not controlling for self-rated health.</t>
+  </si>
+  <si>
+    <t>Openness was a reliable risk factor for mental health events, as is clear both in the observed specification curve and in the permutation-based inference tests across specifications. Moreover, there were no clear cusps in the curves indicating which covariates were consequential for the direction, magnitude, and presence of the effect. Despite this, there are patterns that seem to be associated with effect size at a smaller magnitude, with the effect being smallest when not controlling for self-rated health and largest when not controlling for age.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Optimism-mental health event associations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Optimism was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Positive Affect-mental health event associations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Positive Affect was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect.  Despite this, there are a few notable patterns that appear to surround patterns of including race, previous physical health events, physical functioning and self-rated health that likely suggests that these covariates share variance in a way that may create confounders.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Satisfaction with Life-mental health event associations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Satisfaction with Life was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect appears to be weakest when not controlling for race, suggesting that race may be one pathway through which Satisfaction  with Life predicts mental health events.</t>
+  </si>
+  <si>
+    <t>In the permutation-based inference tests, observed effect sizes of the Self-Esteem-mental health event associations were reliably negative and more extreme than permuted values. However, from looking at the observed specification curve, Self-Esteem was not robustly associated with higher of odds of a mental health event. and there are no observed cusps suggesting consequential indicators of the direction, magnitude, or presence of the effect. Despite this, the effect seems to be strongest which self-rated health, age, and exercise are not controlled for suggesting that these may be pathways through which Self-Esteem predicts mental health events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreeableness was robustly associated with mortality in two of the three permutation tests but less so in the observed curve. As is clear from the figure, self-rated health, gender, and age were the most consequential covariates. The effect was strongest when controlling for age but not health or gender. Controlling for health and gender in addition to age appears to be associated with a cusp the curve in which the effect size is attenuated. There is a second cusp in the right side of the whose origins are less clear. Although the difference appears to arise when age is controlled for, the other consequential covariates associated with the jump are unclear. </t>
+  </si>
+  <si>
+    <t>Depression was a robust risk factor of mortality both in the permutation tests and the observed curve.  The effect is strongest when controlling for age but  not self-rated health, but remains even when both are accounted for. The effect only appears null when self-rated health is controlled for but age is not, which suggests that controlling for age may reduce unexplained variance in health status in ways that is also associated with both depression and mortality.</t>
+  </si>
+  <si>
+    <t>Extraversion had a robust protective effect on mortality in two of three permutation tests and in part of the observed curve. Looking at the curve, the protective effect was only significant when controlling for age and not controlling for self-rated health. Indeed, when controlling for health, there is an attenuating cusp in the effect size that is attenuated even more when also controlling for age.</t>
+  </si>
+  <si>
+    <t>Locus of Control was a robust predictor of mortality in the permutation tests but less so in the observed curve. Age, self-rated health, and alcohol use appear to be the most consequential covariates,  with the strongest effects when neither self-rated health or age are controlled for, a slight reduction when age but not health are controlled for, a cusped reduction when self-rated health but not age is controlled for, and an almost complete reduction when both are controlled for, which is exaggerated when alcohol use is also controlled for.</t>
+  </si>
+  <si>
+    <t>Negative affect was robustly isocitrate with mortality in both the observed specification curve and two of the three permutation tests. Examining the curve, it appears that self-rated health, age, and gender were the most consequential covariates, with controlling for age but not gender flipping the direction of the effect, and controlling for age but not self-rated health exaggerating the effect size and making the remaining  specifications significant. Although the protective effect was strongest when not controlling for age or gender, there is no cusp associated with the gender covariate.</t>
+  </si>
+  <si>
+    <t>Openness was robustly associated with mortality in two of the three permutation tests but less so in the observed specification curve. Indeed, looking at the curve,  the bulk of the significant Openness-mortality effects appear to be when neither age nor self-rated health are controlled for.</t>
+  </si>
+  <si>
+    <t>Self-esteem was not robustly associated with mortality, either in the specification curve or permutation tests. Despite this, self-rated health and age were consequential to the direction and magnitude of the association, with controlling for age but not self-rated health demonstrating a protective effect, controlling for both demonstrating a null effect, and controlling for self-rated health but not age demonstrating a risk effect. This suggests that age and self-rated health have non-shared variance with mortality and self-esteem that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>Social Support was reliably associated mortality. Despite this, patterns of covariates were consequential in the direction, magnitude, and significance of the effect. Social Support had a significant protective effect on mortality when age but not self-rated health was controlled for. When both were controlled for, the effect was near null and largely non-significant, particularly when also controlling for gender. Finally, the largest observed effect was a risk effect when self-rated health but not age was controlled for. This suggests that age and self-rated health have non-shared variance with mortality and social support that largely explains the effect.</t>
+  </si>
+  <si>
+    <t>Agreeableness was a differentially robust predictor of moving in with a partner in the observed curve and the permutation tests (2/3 significant). Looking at the curve, the direction and magnitude of the relationship appears to be largely driven by age, with a jump in the effect size when controlling for age. Thus, it appears that Agreeableness may differentially predict moving in with a partner across age groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQ was a differentially robust predictor of moving in with a partner, both in the observed curve and in the permutation tests (2/3 significant). From the curve, there appears to be an important interplay between age and exercise. When controlling for both, the relationship appears to be small and negative, but when controlling for only age, the relationship appears to be positive. This is slightly complicated further by parental occupational prestige, such that controlling for parental occupational prestige appears to push the direction of the effect more positive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Affect was a differentially robust predictor of moving in with a partner, both in the inference tests and in the observed curve. From the curve, age is the most consequential covariate  and attenuates the association dramatically. Smoking and gross wages appear to important, but less so than age, as  well, further attenuating the relationship, especially when age is also controlled for. This likely suggests that each of these explain variance in the negative affect-move in with a partner relationship, but that these also share variance with one another that they do not share with the target variables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroticism was a robust positive predictor of moving in with a partner both in the observed curve and in the permutation tests. Looking at the curve, age and alcohol appear to be the most consequential covariates, with alcohol appearing to exaggerate the relationship and age appearing to  attenuate it. Moreover, there appears to be an interplay between the two such that the effect is strongest when not controlling for age but controlling for alcohol use and weakest for the opposite. This likely suggests that age-graded changes in social support and the likelihood of moving in with a partner largely drive that effect, but that controlling for alcohol use captures non-shared variance between social support and moving in with partner. Indeed, when not controlling for alcohol, only specifications that included race were significant, suggesting that race plays a similar role. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism was a differentially robust predictor of moving in with a partner, both in the inference tests and in the observed curve. From the curve, age is the most consequential covariate  and attenuates the association dramatically. Smoking and gross wages appear to important, but less so than age, as  well, further attenuating the relationship, especially when age is also controlled for. This likely suggests that each of these explain variance in the optimism-move in with a partner relationship, but that these also share variance with one another that they do not share with the target variables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Affect is a differentially robust predictor of moving in with a partner, both in the inference tests and in the observed curve. Looking at the curve, it's clear that age and parental occupational prestige appear to be the most consequential covariates. Controlling for age critically changes the direction of the relationship from negative to positive, while parental occupational prestige just appears to almost negligibly attenuate the relationship. </t>
+  </si>
+  <si>
+    <t>Self-Esteem as a differential predictor of moving in with a partner both in the observed curve and in the permutation tests (2/3 significant). Looking at the curve, it's not clear what is driving the change in effect size across specifications. Although the effect appears strongest and most negative when not controlling for age and gross wages and slightly positive when not controlling for race and parental divorce, there were no strong cusps indicating these were greatly consequential.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support was a robust predictor of moving in with a partner both in the observed curve and in the permutation tests. Looking at the curve, age and alcohol appear to be the most consequential covariates, with alcohol appearing to exaggerate the relationship and age appearing to  attenuate it. Moreover, there appears to be an interplay between the two such that the effect is strongest when not controlling for age but controlling for alcohol use and weakest for the opposite. This likely suggests that age-graded changes in social support and the likelihood of moving in with a partner largely drive that effect, but that controlling for alcohol use captures non-shared variance between social support and moving in with partner. Indeed, when not controlling for age, only specifications that included race were significant, suggesting that race plays a similar role. </t>
+  </si>
+  <si>
+    <t>Agreeableness was not a robust predictor of major health events, either in the permutation tests or in the observed curve. Looking at the curve, the effect is negative when not controlling or self-rated health and most positive when controlling for age, but neither of these demonstrate a cusp, suggesting that their unique role may be small. However, it is clear the covariates tested can reliably largely attenuate the observed relationship.</t>
+  </si>
+  <si>
+    <t>Extraversion was not a robust predictor of retirement, either in the permutation tests or in the observed curve. From the curve, only age appears to be consequential, largely attenuating the otherwise negative relationship.</t>
+  </si>
+  <si>
+    <t>IQ was not a robust predictor of retirement, either in the observed curve or in the permutation tests. Moreover, there were largely no consequential covariates in terms of significance. In terms of magnitude and direction, specifications that did not include age health tended to be negative while those that did include it tended to be positive, and specifications that included age but not self-rated health tended to be most positive and significant.</t>
+  </si>
+  <si>
+    <t>Negative Affect was a differential predictor of retirement, both in the permutation tests and in the observed curve. From the curve, it's clear that age was the most consequential covariate, almost completely attenuating the otherwise significant negative relationship. Self-rated health and major health events tended to push the relationship more negative, while gross wages appeared to push the relationship more positive / exaggerate the relationship.</t>
+  </si>
+  <si>
+    <t>Neuroticism was a differential predictor of retirement, both in the observed curve and in the permutation tests. From the curve, it's clear that age was the most consequential covariate, changing the direction from negative to positive. Self-rated health and major health events tended to push the relationship more negative, while gross wages appeared to push the relationship more positive / exaggerate the relationship.</t>
+  </si>
+  <si>
+    <t>Optimism was not a robust predictor of retirement, either in the permutation tests or in the observed curve. Moreover, there were largely no consequential covariates in terms of significance. In terms of magnitude and direction, specifications that did not include self-rated health tended to be negative while those that did include it tended to be positive.</t>
+  </si>
+  <si>
+    <t>Positive Affect was a quite robust predictor of retirement, both in the permutation tests and in the observed curve. From the curve, it's clear that age and self-rated  health were the most consequential covariates, with age attenuating the relationship and self-rated health pushing the relationship more positive, regardless of age.  Major health events also appear to attenuate the relationship, but only when not controlling for age, suggesting that many of these of health events are more of a function of natural aging processes.</t>
+  </si>
+  <si>
+    <t>Satisfaction with life was a differential predictor of retirement, both in the permutation tests and in the observed curve. From the curve, it's clear that age and self-rated  health were the most consequential covariates, with age attenuating the relationship and self-rated health pushing the relationship more positive, regardless of age. Marriage and children also appear to attenuate the relationship, as does gross wages when age is controlled for.</t>
+  </si>
+  <si>
+    <t>Depression was a relatively robust predictor of unemployment, both in the observed specification curve as well as  in the permutation test. Looking at the curve, it's clear the effect is strongest when controlling for age and physical health events but not marriage and the effect is weakest when not controlling for major health events. This may indicate that the relationship between Depression and unemployment is different across the life span, particularly when coupled with major health events.</t>
+  </si>
+  <si>
+    <t>Conscientiousness was a robust positive predictor of volunteering in the permutation tests and a differential predictor in the observed curve. From the curve, the effect is strongest and most likely to be significance when not controlling for self-rated health and when controlling for parental occupational prestige. Moreover, age appears to exaggerate the magnitude of the effect, with the strongest effect sizes including age.</t>
+  </si>
+  <si>
+    <t>Depression was a robust negative predictor of volunteering in the permutation tests but not the observed curve. From the curve, the effect is strongest when not controlling for age, parOccPrstg, and grsWages, with controlling for parental occupational prestige appearing to have the strongest attenuating effect.</t>
+  </si>
+  <si>
+    <t>Extraversion was a robust positive predictor of volunteering in the permutation tests but not the observed curve. From the curve, age is the only consequential covariate, slightly attenuating the relationship between Extraversion and volunteering.</t>
+  </si>
+  <si>
+    <t>IQ was a robust positive predictor of volunteering in the permutation tests but less so in the observed curve (in terms of significance). From the curve, age and parental occupational prestige appear to attenuate the relationship slightly, such that controlling for both has the weakest effect size and controlling for neither has the strongest.</t>
+  </si>
+  <si>
+    <t>Negative Affect was a robust negative predictor of volunteering, both in the observed curve and in the permutation tests. Moreover, the only variable that appeared to have a notable impact on the significance was age, which appeared to largely exaggerate the relationship, suggesting that the relationship between negative affect and volunteering may differ across age groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openness was a robust predictor of volunteering in the permutation tests but less so in the observed curve (in terms of significance). Looking at the curve, the effect was weakest when controlling or age, education, and self-rated health, suggest that these variables share variance with Openness and volunteering that limits their unique relationship. </t>
+  </si>
+  <si>
+    <t>Self-Esteem is a differential predictor of volunteering, both in the observed curve and in the permutation tests. From the curve, parental occupational prestige appears to play the most critical role, changing the direction of the relationship from positive to negative. In addition, education and age appear to attenuate the relationship, but only when also controlling for parental occupational prestige, gender exaggerates the relationship when not controlling for parental occupational prestige, and exercise exaggerates the relationship when not controlling for parental occupational prestige.</t>
+  </si>
+  <si>
+    <t>Social Support was a differential predictor of volunteering in the observed curve and a robust predictor in the observed curve. From the curve, age appears to attenuate the significance and magnitude of the relationship, self-rated health somewhat attenuates the magnitude, and major health events exaggerate the magnitude. Thus, social support and volunteering appear to share variance with self-rated health and age, while health events appears to have non-shared variance that may mask the relationship.</t>
+  </si>
+  <si>
+    <t>Agreeableness was largely unpredictive of child birth as a whole, although a  number of specifications did show a reliable protective effect. However, the protective effect appears to have been largely driven by not controlling for both age and parental occupational prestige, with essentially no specifications including these variables demonstrating any significant personality-outcome associations.</t>
+  </si>
+  <si>
+    <t>Although two of the three inference tests found the Conscientiousness-Child Birth associations to be largely robust, the specification curve itself shows that a large proportion of specifications were not significant. Although it demonstrates that the effect is strongest when race, parental divorce, and age are not controlled for and weakest when marriage and smoking are not controlled for, there is largely no overall pattern underlying the pattern of the curve.</t>
+  </si>
+  <si>
+    <t>race, age, parDivorce, married, smoking</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1479,8 @@
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
@@ -1119,7 +1524,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>343</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
@@ -1139,7 +1547,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>344</v>
+      </c>
+      <c r="E3" t="s">
+        <v>345</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
@@ -1159,7 +1570,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>24</v>
@@ -1179,7 +1593,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
@@ -1199,7 +1616,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1213,7 +1633,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -1227,7 +1650,10 @@
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -1241,7 +1667,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -1255,7 +1684,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1269,7 +1701,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -1283,7 +1718,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1297,7 +1735,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -1311,7 +1752,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1325,7 +1769,10 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -1339,10 +1786,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1356,10 +1803,10 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1373,10 +1820,10 @@
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1390,10 +1837,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1407,10 +1854,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1424,10 +1871,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1441,10 +1888,10 @@
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1458,10 +1905,10 @@
         <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1475,10 +1922,10 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1492,10 +1939,10 @@
         <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1509,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1526,10 +1973,10 @@
         <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1543,10 +1990,10 @@
         <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1560,10 +2007,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1577,10 +2024,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1594,10 +2041,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1611,10 +2058,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="221" x14ac:dyDescent="0.2">
@@ -1628,10 +2075,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1645,10 +2092,10 @@
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1662,10 +2109,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1679,10 +2126,10 @@
         <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1696,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1713,10 +2160,10 @@
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1730,10 +2177,10 @@
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1747,10 +2194,10 @@
         <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1764,10 +2211,10 @@
         <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1781,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1798,10 +2245,10 @@
         <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1815,7 +2262,10 @@
         <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>271</v>
+      </c>
+      <c r="E44" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1829,7 +2279,10 @@
         <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>272</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1843,7 +2296,10 @@
         <v>31</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1857,7 +2313,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -1871,7 +2330,10 @@
         <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>273</v>
+      </c>
+      <c r="E48" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -1885,7 +2347,10 @@
         <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1899,7 +2364,10 @@
         <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1913,7 +2381,10 @@
         <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1927,7 +2398,10 @@
         <v>31</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -1941,7 +2415,10 @@
         <v>31</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>275</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1955,7 +2432,7 @@
         <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1969,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1983,7 +2460,10 @@
         <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1997,7 +2477,10 @@
         <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2011,10 +2494,10 @@
         <v>31</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2028,10 +2511,10 @@
         <v>31</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -2045,10 +2528,10 @@
         <v>31</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2062,10 +2545,10 @@
         <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="187" x14ac:dyDescent="0.2">
@@ -2079,10 +2562,10 @@
         <v>31</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="187" x14ac:dyDescent="0.2">
@@ -2096,10 +2579,10 @@
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2113,13 +2596,13 @@
         <v>31</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2130,13 +2613,13 @@
         <v>31</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2147,13 +2630,13 @@
         <v>28</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -2164,13 +2647,13 @@
         <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2181,13 +2664,13 @@
         <v>31</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2198,13 +2681,13 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -2215,13 +2698,13 @@
         <v>28</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -2232,13 +2715,13 @@
         <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2249,13 +2732,13 @@
         <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2266,13 +2749,13 @@
         <v>31</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -2283,13 +2766,13 @@
         <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -2300,13 +2783,13 @@
         <v>28</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2317,16 +2800,13 @@
         <v>29</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2337,16 +2817,13 @@
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
       </c>
-      <c r="H77" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -2357,16 +2834,13 @@
         <v>31</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
-      </c>
-      <c r="H78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2377,13 +2851,13 @@
         <v>31</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2394,10 +2868,10 @@
         <v>31</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2411,10 +2885,10 @@
         <v>29</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2428,10 +2902,10 @@
         <v>31</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2445,10 +2919,10 @@
         <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2462,10 +2936,10 @@
         <v>31</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2479,13 +2953,13 @@
         <v>31</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2495,8 +2969,14 @@
       <c r="C86" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2506,19 +2986,31 @@
       <c r="C87" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -2528,8 +3020,14 @@
       <c r="C89" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2539,8 +3037,14 @@
       <c r="C90" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2550,8 +3054,14 @@
       <c r="C91" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -2561,8 +3071,14 @@
       <c r="C92" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2572,8 +3088,14 @@
       <c r="C93" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2583,8 +3105,14 @@
       <c r="C94" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -2594,8 +3122,14 @@
       <c r="C95" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -2605,8 +3139,14 @@
       <c r="C96" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -2616,8 +3156,14 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -2627,8 +3173,14 @@
       <c r="C98" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -2637,6 +3189,12 @@
       </c>
       <c r="C99" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2650,10 +3208,10 @@
         <v>28</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E100" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -2667,10 +3225,10 @@
         <v>29</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2684,10 +3242,10 @@
         <v>31</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2701,10 +3259,10 @@
         <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2718,10 +3276,10 @@
         <v>28</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2735,10 +3293,10 @@
         <v>28</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2752,10 +3310,10 @@
         <v>28</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2769,10 +3327,10 @@
         <v>28</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2786,10 +3344,10 @@
         <v>29</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -2803,7 +3361,7 @@
         <v>28</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2817,10 +3375,10 @@
         <v>28</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="E110" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -2834,10 +3392,10 @@
         <v>28</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2851,10 +3409,10 @@
         <v>28</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2868,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E113" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2885,10 +3443,10 @@
         <v>31</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2902,10 +3460,10 @@
         <v>31</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -2919,10 +3477,10 @@
         <v>31</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -2936,10 +3494,10 @@
         <v>31</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2953,7 +3511,10 @@
         <v>29</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -2967,10 +3528,10 @@
         <v>28</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -2984,13 +3545,13 @@
         <v>31</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="E120" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -3001,7 +3562,10 @@
         <v>31</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="E121" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -3015,10 +3579,10 @@
         <v>31</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="E122" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -3032,10 +3596,10 @@
         <v>28</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E123" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="153" x14ac:dyDescent="0.2">
@@ -3049,10 +3613,10 @@
         <v>31</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="187" x14ac:dyDescent="0.2">
@@ -3066,10 +3630,10 @@
         <v>31</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E125" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -3083,10 +3647,10 @@
         <v>31</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="E126" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -3100,13 +3664,13 @@
         <v>31</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="E127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -3116,8 +3680,14 @@
       <c r="C128" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -3127,8 +3697,14 @@
       <c r="C129" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -3138,8 +3714,14 @@
       <c r="C130" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -3150,7 +3732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3160,8 +3742,14 @@
       <c r="C132" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -3171,8 +3759,11 @@
       <c r="C133" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -3182,8 +3773,14 @@
       <c r="C134" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3193,8 +3790,14 @@
       <c r="C135" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -3204,8 +3807,14 @@
       <c r="C136" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -3215,8 +3824,14 @@
       <c r="C137" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E137" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>39</v>
       </c>
@@ -3226,8 +3841,14 @@
       <c r="C138" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>38</v>
       </c>
@@ -3237,8 +3858,14 @@
       <c r="C139" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3875,14 @@
       <c r="C140" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E140" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -3259,8 +3892,14 @@
       <c r="C141" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3270,8 +3909,11 @@
       <c r="C142" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3281,8 +3923,14 @@
       <c r="C143" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>43</v>
       </c>
@@ -3292,8 +3940,11 @@
       <c r="C144" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -3303,8 +3954,14 @@
       <c r="C145" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E145" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -3314,8 +3971,14 @@
       <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -3325,8 +3988,14 @@
       <c r="C147" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -3336,8 +4005,14 @@
       <c r="C148" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -3347,8 +4022,14 @@
       <c r="C149" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -3358,8 +4039,14 @@
       <c r="C150" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>37</v>
       </c>
@@ -3369,8 +4056,14 @@
       <c r="C151" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3380,8 +4073,14 @@
       <c r="C152" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -3391,8 +4090,14 @@
       <c r="C153" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E153" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3402,8 +4107,14 @@
       <c r="C154" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -3413,8 +4124,14 @@
       <c r="C155" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>33</v>
       </c>
@@ -3424,8 +4141,11 @@
       <c r="C156" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -3435,8 +4155,14 @@
       <c r="C157" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E157" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +4172,14 @@
       <c r="C158" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E158" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>32</v>
       </c>
@@ -3457,8 +4189,14 @@
       <c r="C159" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -3468,8 +4206,14 @@
       <c r="C160" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E160" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -3479,8 +4223,14 @@
       <c r="C161" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E161" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>40</v>
       </c>
@@ -3490,8 +4240,14 @@
       <c r="C162" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -3501,8 +4257,14 @@
       <c r="C163" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -3512,8 +4274,14 @@
       <c r="C164" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>37</v>
       </c>
@@ -3523,8 +4291,14 @@
       <c r="C165" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -3534,8 +4308,14 @@
       <c r="C166" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>38</v>
       </c>
@@ -3545,8 +4325,14 @@
       <c r="C167" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -3556,8 +4342,14 @@
       <c r="C168" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -3567,8 +4359,14 @@
       <c r="C169" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>33</v>
       </c>
@@ -3578,8 +4376,11 @@
       <c r="C170" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -3589,8 +4390,14 @@
       <c r="C171" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E171" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>43</v>
       </c>
@@ -3600,8 +4407,14 @@
       <c r="C172" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E172" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -3611,8 +4424,14 @@
       <c r="C173" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -3622,8 +4441,14 @@
       <c r="C174" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -3633,8 +4458,11 @@
       <c r="C175" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>40</v>
       </c>
@@ -3644,8 +4472,14 @@
       <c r="C176" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>30</v>
       </c>
@@ -3655,8 +4489,14 @@
       <c r="C177" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E177" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>35</v>
       </c>
@@ -3666,8 +4506,14 @@
       <c r="C178" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -3677,8 +4523,14 @@
       <c r="C179" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E179" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>39</v>
       </c>
@@ -3688,8 +4540,14 @@
       <c r="C180" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E180" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -3699,8 +4557,14 @@
       <c r="C181" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E181" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -3710,8 +4574,11 @@
       <c r="C182" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -3721,8 +4588,17 @@
       <c r="C183" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E183" t="s">
+        <v>82</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -3732,8 +4608,17 @@
       <c r="C184" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E184" t="s">
+        <v>235</v>
+      </c>
+      <c r="G184" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -3743,8 +4628,17 @@
       <c r="C185" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E185" t="s">
+        <v>235</v>
+      </c>
+      <c r="G185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -3754,8 +4648,14 @@
       <c r="C186" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -3765,8 +4665,14 @@
       <c r="C187" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E187" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -3776,8 +4682,14 @@
       <c r="C188" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E188" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>41</v>
       </c>
@@ -3787,8 +4699,14 @@
       <c r="C189" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -3798,8 +4716,14 @@
       <c r="C190" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>30</v>
       </c>
@@ -3809,8 +4733,14 @@
       <c r="C191" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -3820,8 +4750,14 @@
       <c r="C192" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>37</v>
       </c>
@@ -3831,8 +4767,11 @@
       <c r="C193" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -3842,8 +4781,14 @@
       <c r="C194" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>38</v>
       </c>
@@ -3853,8 +4798,14 @@
       <c r="C195" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E195" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -3864,8 +4815,14 @@
       <c r="C196" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -3874,6 +4831,12 @@
       </c>
       <c r="C197" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E197" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/results/sca/SCA_summary.xlsx
+++ b/results/sca/SCA_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie Beck/projects/selection/results/sca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Emorie Beck/GitHub/selection/results/sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE95F6-5F6E-F545-9123-B5525500743F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDEAD7B-5D18-224B-AF45-464C8D83A38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31180" yWindow="480" windowWidth="16840" windowHeight="18960" xr2:uid="{E6F6BC21-6524-9140-B7AB-1600DB03E552}"/>
   </bookViews>
@@ -1479,8 +1479,8 @@
   <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1775,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="85" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -3551,7 +3551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>42</v>
       </c>
